--- a/price.xlsx
+++ b/price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workplace_python\ShopERP\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workplace_python\ShopTools\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DBA7F9-94C9-4D36-A0F0-1934C754C43F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F17F5-F192-48D4-9007-E32CF0DA58D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20940" yWindow="1050" windowWidth="19185" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="384">
   <si>
     <t>商品</t>
   </si>
@@ -884,9 +884,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">加绒打底裤 </t>
-  </si>
-  <si>
     <t>331013888951
 286186418550</t>
   </si>
@@ -1024,13 +1021,175 @@
   </si>
   <si>
     <t>大童棉毛套装</t>
+  </si>
+  <si>
+    <t>220114</t>
+  </si>
+  <si>
+    <t>220115</t>
+  </si>
+  <si>
+    <t>220116</t>
+  </si>
+  <si>
+    <t>陶子兔TZT</t>
+  </si>
+  <si>
+    <t>220117</t>
+  </si>
+  <si>
+    <t>大童舒绒套装</t>
+  </si>
+  <si>
+    <t>220118</t>
+  </si>
+  <si>
+    <t>小童中领套装</t>
+  </si>
+  <si>
+    <t>220119</t>
+  </si>
+  <si>
+    <t>小童中领单衣</t>
+  </si>
+  <si>
+    <t>220120</t>
+  </si>
+  <si>
+    <t>小童中领单裤</t>
+  </si>
+  <si>
+    <t>220121</t>
+  </si>
+  <si>
+    <t>小童莫代尔套装</t>
+  </si>
+  <si>
+    <t>220122</t>
+  </si>
+  <si>
+    <t>小童棉毛套装</t>
+  </si>
+  <si>
+    <t>喜福娃</t>
+  </si>
+  <si>
+    <t>220123</t>
+  </si>
+  <si>
+    <t>小童德绒套装</t>
+  </si>
+  <si>
+    <t>220124</t>
+  </si>
+  <si>
+    <t>小童AB面套装</t>
+  </si>
+  <si>
+    <t>220125</t>
+  </si>
+  <si>
+    <t>220126</t>
+  </si>
+  <si>
+    <t>小童暖绒套装</t>
+  </si>
+  <si>
+    <t>220127</t>
+  </si>
+  <si>
+    <t>小童牛奶丝套装</t>
+  </si>
+  <si>
+    <t>220128</t>
+  </si>
+  <si>
+    <t>220129</t>
+  </si>
+  <si>
+    <t>儿童中领单衣</t>
+  </si>
+  <si>
+    <t>220130</t>
+  </si>
+  <si>
+    <t>儿童印花套装</t>
+  </si>
+  <si>
+    <t>220131</t>
+  </si>
+  <si>
+    <t>AB面长袖套装</t>
+  </si>
+  <si>
+    <t>220132</t>
+  </si>
+  <si>
+    <t>AB面背心</t>
+  </si>
+  <si>
+    <t>220133</t>
+  </si>
+  <si>
+    <t>圆领加绒套装</t>
+  </si>
+  <si>
+    <t>220134</t>
+  </si>
+  <si>
+    <t>220135</t>
+  </si>
+  <si>
+    <t>速干套装</t>
+  </si>
+  <si>
+    <t>220136</t>
+  </si>
+  <si>
+    <t>中领加绒套装</t>
+  </si>
+  <si>
+    <t>220137</t>
+  </si>
+  <si>
+    <t>德绒套装</t>
+  </si>
+  <si>
+    <t>220138</t>
+  </si>
+  <si>
+    <t>小童纯棉套装</t>
+  </si>
+  <si>
+    <t>220139</t>
+  </si>
+  <si>
+    <t>小童莱卡套装</t>
+  </si>
+  <si>
+    <t>220140</t>
+  </si>
+  <si>
+    <t>酷丝棉套装</t>
+  </si>
+  <si>
+    <t>220141</t>
+  </si>
+  <si>
+    <t>舒绒套装</t>
+  </si>
+  <si>
+    <t>220142</t>
+  </si>
+  <si>
+    <t>星空棉套装</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1276,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1157,7 +1324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1235,6 +1402,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
@@ -1533,7 +1703,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1601,7 +1771,7 @@
         <v>180</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>10</v>
@@ -3157,11 +3327,11 @@
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
     </row>
-    <row r="33" spans="1:33" ht="112.5">
+    <row r="33" spans="1:33" ht="22.5">
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>280</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3224,11 +3394,11 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="1:33" ht="67.5">
+    <row r="34" spans="1:33" ht="22.5">
       <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -3336,11 +3506,11 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="1:33" ht="112.5">
+    <row r="36" spans="1:33" ht="22.5">
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -3395,11 +3565,11 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="1:33" ht="90">
+    <row r="37" spans="1:33" ht="22.5">
       <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3458,11 +3628,11 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="1:33" ht="67.5">
+    <row r="38" spans="1:33" ht="22.5">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3813,19 +3983,33 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="L45" s="4">
+        <v>24</v>
+      </c>
       <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4">
+        <v>25</v>
+      </c>
       <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
+      <c r="P45" s="4">
+        <v>26</v>
+      </c>
       <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
+      <c r="R45" s="4">
+        <v>27</v>
+      </c>
       <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
+      <c r="T45" s="4">
+        <v>28</v>
+      </c>
       <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
+      <c r="V45" s="4">
+        <v>29</v>
+      </c>
       <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
+      <c r="X45" s="4">
+        <v>30</v>
+      </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
@@ -4183,7 +4367,7 @@
         <v>122</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>73</v>
@@ -5399,7 +5583,7 @@
       <c r="A73" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -5474,7 +5658,7 @@
       <c r="A74" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="4" t="s">
         <v>173</v>
       </c>
       <c r="C74" s="16"/>
@@ -5584,7 +5768,7 @@
       <c r="A76" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -5627,7 +5811,7 @@
       <c r="A77" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C77" s="20"/>
@@ -5753,7 +5937,7 @@
       <c r="A79" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C79" s="19"/>
@@ -5818,7 +6002,7 @@
       <c r="A80" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C80" s="19" t="s">
@@ -5885,7 +6069,7 @@
       <c r="A81" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C81" s="19" t="s">
@@ -5960,7 +6144,7 @@
       <c r="A82" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C82" s="19" t="s">
@@ -6021,7 +6205,7 @@
       <c r="A83" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="4" t="s">
         <v>195</v>
       </c>
       <c r="C83" s="19" t="s">
@@ -6086,7 +6270,7 @@
       <c r="A84" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -6096,7 +6280,7 @@
         <v>161</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
@@ -6633,7 +6817,7 @@
     </row>
     <row r="93" spans="1:33" ht="22.5">
       <c r="A93" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6688,7 +6872,7 @@
     </row>
     <row r="94" spans="1:33" ht="22.5">
       <c r="A94" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6796,7 +6980,7 @@
     </row>
     <row r="96" spans="1:33" ht="22.5">
       <c r="A96" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6939,7 +7123,7 @@
     </row>
     <row r="99" spans="1:33" ht="22.5">
       <c r="A99" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>227</v>
@@ -7541,7 +7725,7 @@
       <c r="A109" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C109" s="19"/>
@@ -7786,7 +7970,7 @@
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="4"/>
@@ -8398,8 +8582,8 @@
       <c r="A124" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>240</v>
+      <c r="B124" s="4">
+        <v>220053</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -8447,14 +8631,14 @@
     </row>
     <row r="125" spans="1:33" ht="22.5">
       <c r="A125" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="B125" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C125" s="26"/>
       <c r="D125" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="26"/>
@@ -8500,14 +8684,14 @@
     </row>
     <row r="126" spans="1:33" ht="22.5">
       <c r="A126" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="4"/>
@@ -8557,14 +8741,14 @@
     </row>
     <row r="127" spans="1:33" ht="22.5">
       <c r="A127" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="4"/>
@@ -8612,14 +8796,14 @@
     </row>
     <row r="128" spans="1:33" ht="22.5">
       <c r="A128" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="4"/>
@@ -8675,14 +8859,14 @@
     </row>
     <row r="129" spans="1:33" ht="22.5">
       <c r="A129" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="4"/>
@@ -8732,14 +8916,14 @@
     </row>
     <row r="130" spans="1:33" ht="22.5">
       <c r="A130" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="4"/>
@@ -8793,14 +8977,14 @@
     </row>
     <row r="131" spans="1:33" ht="22.5">
       <c r="A131" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="4"/>
@@ -8848,14 +9032,14 @@
     </row>
     <row r="132" spans="1:33" ht="22.5">
       <c r="A132" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="4"/>
@@ -8905,14 +9089,14 @@
     </row>
     <row r="133" spans="1:33" ht="22.5">
       <c r="A133" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="4"/>
@@ -8966,14 +9150,14 @@
     </row>
     <row r="134" spans="1:33" ht="22.5">
       <c r="A134" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="4"/>
@@ -9029,14 +9213,14 @@
     </row>
     <row r="135" spans="1:33" ht="22.5">
       <c r="A135" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="4"/>
@@ -9084,14 +9268,14 @@
     </row>
     <row r="136" spans="1:33" ht="22.5">
       <c r="A136" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="4"/>
@@ -9139,14 +9323,14 @@
     </row>
     <row r="137" spans="1:33" ht="22.5">
       <c r="A137" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="4"/>
@@ -9194,14 +9378,14 @@
     </row>
     <row r="138" spans="1:33" ht="22.5">
       <c r="A138" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="4"/>
@@ -9247,14 +9431,14 @@
     </row>
     <row r="139" spans="1:33" ht="22.5">
       <c r="A139" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>316</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="4"/>
@@ -9318,14 +9502,14 @@
     </row>
     <row r="140" spans="1:33" ht="22.5">
       <c r="A140" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="4"/>
@@ -9389,14 +9573,14 @@
     </row>
     <row r="141" spans="1:33" ht="22.5">
       <c r="A141" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="4"/>
@@ -9460,7 +9644,7 @@
     </row>
     <row r="142" spans="1:33" ht="22.5">
       <c r="A142" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9511,7 +9695,7 @@
     </row>
     <row r="143" spans="1:33" ht="22.5">
       <c r="A143" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9570,17 +9754,17 @@
     </row>
     <row r="144" spans="1:33" ht="22.5">
       <c r="A144" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -9643,14 +9827,14 @@
     </row>
     <row r="145" spans="1:33" ht="22.5">
       <c r="A145" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="4"/>
@@ -9684,14 +9868,14 @@
     </row>
     <row r="146" spans="1:33" ht="22.5">
       <c r="A146" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="4"/>
@@ -9724,10 +9908,16 @@
       <c r="AG146" s="4"/>
     </row>
     <row r="147" spans="1:33" ht="22.5">
-      <c r="A147" s="3"/>
-      <c r="B147" s="4"/>
+      <c r="A147" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="E147" s="3"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -9738,20 +9928,36 @@
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
+      <c r="O147" s="4">
+        <v>16</v>
+      </c>
       <c r="P147" s="4"/>
       <c r="Q147" s="4"/>
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
+      <c r="T147" s="4">
+        <v>21</v>
+      </c>
       <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
+      <c r="V147" s="4">
+        <v>22</v>
+      </c>
       <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-      <c r="AB147" s="4"/>
+      <c r="X147" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y147" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z147" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA147" s="4">
+        <v>28</v>
+      </c>
+      <c r="AB147" s="4">
+        <v>30</v>
+      </c>
       <c r="AC147" s="4"/>
       <c r="AD147" s="4"/>
       <c r="AE147" s="4"/>
@@ -9759,10 +9965,16 @@
       <c r="AG147" s="4"/>
     </row>
     <row r="148" spans="1:33" ht="22.5">
-      <c r="A148" s="3"/>
-      <c r="B148" s="4"/>
+      <c r="A148" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E148" s="3"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -9778,15 +9990,29 @@
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
+      <c r="T148" s="4">
+        <v>21</v>
+      </c>
       <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
+      <c r="V148" s="4">
+        <v>22</v>
+      </c>
       <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
-      <c r="AB148" s="4"/>
+      <c r="X148" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y148" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z148" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA148" s="4">
+        <v>28</v>
+      </c>
+      <c r="AB148" s="4">
+        <v>30</v>
+      </c>
       <c r="AC148" s="4"/>
       <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
@@ -9794,10 +10020,16 @@
       <c r="AG148" s="4"/>
     </row>
     <row r="149" spans="1:33" ht="22.5">
-      <c r="A149" s="3"/>
-      <c r="B149" s="4"/>
+      <c r="A149" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="27" t="s">
+        <v>333</v>
+      </c>
       <c r="E149" s="3"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -9813,15 +10045,29 @@
       <c r="Q149" s="4"/>
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
+      <c r="T149" s="4">
+        <v>21</v>
+      </c>
       <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
+      <c r="V149" s="4">
+        <v>22</v>
+      </c>
       <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
-      <c r="Y149" s="4"/>
-      <c r="Z149" s="4"/>
-      <c r="AA149" s="4"/>
-      <c r="AB149" s="4"/>
+      <c r="X149" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y149" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z149" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA149" s="4">
+        <v>28</v>
+      </c>
+      <c r="AB149" s="4">
+        <v>30</v>
+      </c>
       <c r="AC149" s="4"/>
       <c r="AD149" s="4"/>
       <c r="AE149" s="4"/>
@@ -9829,10 +10075,16 @@
       <c r="AG149" s="4"/>
     </row>
     <row r="150" spans="1:33" ht="22.5">
-      <c r="A150" s="3"/>
-      <c r="B150" s="4"/>
+      <c r="A150" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E150" s="3"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -9840,23 +10092,45 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
+      <c r="L150" s="4">
+        <v>24</v>
+      </c>
       <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
+      <c r="N150" s="4">
+        <v>26</v>
+      </c>
       <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
+      <c r="P150" s="4">
+        <v>28</v>
+      </c>
       <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
+      <c r="R150" s="4">
+        <v>30</v>
+      </c>
       <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
+      <c r="T150" s="4">
+        <v>32</v>
+      </c>
       <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
+      <c r="V150" s="4">
+        <v>34</v>
+      </c>
       <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="4"/>
-      <c r="Z150" s="4"/>
-      <c r="AA150" s="4"/>
-      <c r="AB150" s="4"/>
+      <c r="X150" s="4">
+        <v>36</v>
+      </c>
+      <c r="Y150" s="4">
+        <v>38</v>
+      </c>
+      <c r="Z150" s="4">
+        <v>40</v>
+      </c>
+      <c r="AA150" s="4">
+        <v>42</v>
+      </c>
+      <c r="AB150" s="4">
+        <v>45</v>
+      </c>
       <c r="AC150" s="4"/>
       <c r="AD150" s="4"/>
       <c r="AE150" s="4"/>
@@ -9864,10 +10138,16 @@
       <c r="AG150" s="4"/>
     </row>
     <row r="151" spans="1:33" ht="22.5">
-      <c r="A151" s="3"/>
-      <c r="B151" s="4"/>
+      <c r="A151" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E151" s="3"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -9875,19 +10155,33 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
+      <c r="L151" s="4">
+        <v>15</v>
+      </c>
       <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
+      <c r="N151" s="4">
+        <v>16</v>
+      </c>
       <c r="O151" s="4"/>
-      <c r="P151" s="4"/>
+      <c r="P151" s="4">
+        <v>17</v>
+      </c>
       <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
+      <c r="R151" s="4">
+        <v>19</v>
+      </c>
       <c r="S151" s="4"/>
-      <c r="T151" s="4"/>
+      <c r="T151" s="4">
+        <v>20</v>
+      </c>
       <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
+      <c r="V151" s="4">
+        <v>21</v>
+      </c>
       <c r="W151" s="4"/>
-      <c r="X151" s="4"/>
+      <c r="X151" s="4">
+        <v>23</v>
+      </c>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
@@ -9899,10 +10193,16 @@
       <c r="AG151" s="4"/>
     </row>
     <row r="152" spans="1:33" ht="22.5">
-      <c r="A152" s="3"/>
-      <c r="B152" s="4"/>
+      <c r="A152" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E152" s="3"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -9910,19 +10210,33 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
+      <c r="L152" s="4">
+        <v>8</v>
+      </c>
       <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
+      <c r="N152" s="4">
+        <v>8.5</v>
+      </c>
       <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
+      <c r="P152" s="4">
+        <v>9</v>
+      </c>
       <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
+      <c r="R152" s="4">
+        <v>10</v>
+      </c>
       <c r="S152" s="4"/>
-      <c r="T152" s="4"/>
+      <c r="T152" s="4">
+        <v>10.5</v>
+      </c>
       <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
+      <c r="V152" s="4">
+        <v>11</v>
+      </c>
       <c r="W152" s="4"/>
-      <c r="X152" s="4"/>
+      <c r="X152" s="4">
+        <v>12</v>
+      </c>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4"/>
@@ -9934,10 +10248,16 @@
       <c r="AG152" s="4"/>
     </row>
     <row r="153" spans="1:33" ht="22.5">
-      <c r="A153" s="3"/>
-      <c r="B153" s="4"/>
+      <c r="A153" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E153" s="3"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -9945,19 +10265,33 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
+      <c r="L153" s="4">
+        <v>7</v>
+      </c>
       <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
+      <c r="N153" s="4">
+        <v>7.5</v>
+      </c>
       <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
+      <c r="P153" s="4">
+        <v>8</v>
+      </c>
       <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
+      <c r="R153" s="4">
+        <v>9</v>
+      </c>
       <c r="S153" s="4"/>
-      <c r="T153" s="4"/>
+      <c r="T153" s="4">
+        <v>9.5</v>
+      </c>
       <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
+      <c r="V153" s="4">
+        <v>10</v>
+      </c>
       <c r="W153" s="4"/>
-      <c r="X153" s="4"/>
+      <c r="X153" s="4">
+        <v>11</v>
+      </c>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4"/>
@@ -9969,10 +10303,16 @@
       <c r="AG153" s="4"/>
     </row>
     <row r="154" spans="1:33" ht="22.5">
-      <c r="A154" s="3"/>
-      <c r="B154" s="4"/>
+      <c r="A154" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E154" s="3"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -9980,19 +10320,33 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
+      <c r="L154" s="4">
+        <v>16</v>
+      </c>
       <c r="M154" s="4"/>
-      <c r="N154" s="4"/>
+      <c r="N154" s="4">
+        <v>17</v>
+      </c>
       <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
+      <c r="P154" s="4">
+        <v>18</v>
+      </c>
       <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
+      <c r="R154" s="4">
+        <v>20</v>
+      </c>
       <c r="S154" s="4"/>
-      <c r="T154" s="4"/>
+      <c r="T154" s="4">
+        <v>21</v>
+      </c>
       <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
+      <c r="V154" s="4">
+        <v>22</v>
+      </c>
       <c r="W154" s="4"/>
-      <c r="X154" s="4"/>
+      <c r="X154" s="4">
+        <v>24</v>
+      </c>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4"/>
@@ -10004,10 +10358,16 @@
       <c r="AG154" s="4"/>
     </row>
     <row r="155" spans="1:33" ht="22.5">
-      <c r="A155" s="3"/>
-      <c r="B155" s="4"/>
+      <c r="A155" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="E155" s="3"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -10015,23 +10375,45 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
+      <c r="L155" s="4">
+        <v>15</v>
+      </c>
       <c r="M155" s="4"/>
-      <c r="N155" s="4"/>
+      <c r="N155" s="4">
+        <v>16</v>
+      </c>
       <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
+      <c r="P155" s="4">
+        <v>17</v>
+      </c>
       <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
+      <c r="R155" s="4">
+        <v>19</v>
+      </c>
       <c r="S155" s="4"/>
-      <c r="T155" s="4"/>
+      <c r="T155" s="4">
+        <v>20</v>
+      </c>
       <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
+      <c r="V155" s="4">
+        <v>21</v>
+      </c>
       <c r="W155" s="4"/>
-      <c r="X155" s="4"/>
-      <c r="Y155" s="4"/>
-      <c r="Z155" s="4"/>
-      <c r="AA155" s="4"/>
-      <c r="AB155" s="4"/>
+      <c r="X155" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y155" s="4">
+        <v>27</v>
+      </c>
+      <c r="Z155" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA155" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB155" s="4">
+        <v>28</v>
+      </c>
       <c r="AC155" s="4"/>
       <c r="AD155" s="4"/>
       <c r="AE155" s="4"/>
@@ -10039,10 +10421,16 @@
       <c r="AG155" s="4"/>
     </row>
     <row r="156" spans="1:33" ht="22.5">
-      <c r="A156" s="3"/>
-      <c r="B156" s="4"/>
+      <c r="A156" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E156" s="3"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -10050,23 +10438,45 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
+      <c r="L156" s="4">
+        <v>15</v>
+      </c>
       <c r="M156" s="4"/>
-      <c r="N156" s="4"/>
+      <c r="N156" s="4">
+        <v>16</v>
+      </c>
       <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
+      <c r="P156" s="4">
+        <v>17</v>
+      </c>
       <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
+      <c r="R156" s="4">
+        <v>19</v>
+      </c>
       <c r="S156" s="4"/>
-      <c r="T156" s="4"/>
+      <c r="T156" s="4">
+        <v>20</v>
+      </c>
       <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
+      <c r="V156" s="4">
+        <v>21</v>
+      </c>
       <c r="W156" s="4"/>
-      <c r="X156" s="4"/>
-      <c r="Y156" s="4"/>
-      <c r="Z156" s="4"/>
-      <c r="AA156" s="4"/>
-      <c r="AB156" s="4"/>
+      <c r="X156" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y156" s="4">
+        <v>27</v>
+      </c>
+      <c r="Z156" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA156" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB156" s="4">
+        <v>29</v>
+      </c>
       <c r="AC156" s="4"/>
       <c r="AD156" s="4"/>
       <c r="AE156" s="4"/>
@@ -10074,10 +10484,16 @@
       <c r="AG156" s="4"/>
     </row>
     <row r="157" spans="1:33" ht="22.5">
-      <c r="A157" s="3"/>
-      <c r="B157" s="4"/>
+      <c r="A157" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="D157" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E157" s="3"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -10085,21 +10501,39 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
+      <c r="L157" s="4">
+        <v>13</v>
+      </c>
       <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
+      <c r="N157" s="4">
+        <v>14</v>
+      </c>
       <c r="O157" s="4"/>
-      <c r="P157" s="4"/>
+      <c r="P157" s="4">
+        <v>15</v>
+      </c>
       <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
+      <c r="R157" s="4">
+        <v>17</v>
+      </c>
       <c r="S157" s="4"/>
-      <c r="T157" s="4"/>
+      <c r="T157" s="4">
+        <v>18</v>
+      </c>
       <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
+      <c r="V157" s="4">
+        <v>19</v>
+      </c>
       <c r="W157" s="4"/>
-      <c r="X157" s="4"/>
-      <c r="Y157" s="4"/>
-      <c r="Z157" s="4"/>
+      <c r="X157" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y157" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z157" s="4">
+        <v>27</v>
+      </c>
       <c r="AA157" s="4"/>
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
@@ -10109,10 +10543,16 @@
       <c r="AG157" s="4"/>
     </row>
     <row r="158" spans="1:33" ht="22.5">
-      <c r="A158" s="3"/>
-      <c r="B158" s="4"/>
+      <c r="A158" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E158" s="3"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -10120,22 +10560,42 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
+      <c r="L158" s="4">
+        <v>15</v>
+      </c>
       <c r="M158" s="4"/>
-      <c r="N158" s="4"/>
+      <c r="N158" s="4">
+        <v>16</v>
+      </c>
       <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
+      <c r="P158" s="4">
+        <v>17</v>
+      </c>
       <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
+      <c r="R158" s="4">
+        <v>19</v>
+      </c>
       <c r="S158" s="4"/>
-      <c r="T158" s="4"/>
+      <c r="T158" s="4">
+        <v>20</v>
+      </c>
       <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
+      <c r="V158" s="4">
+        <v>21</v>
+      </c>
       <c r="W158" s="4"/>
-      <c r="X158" s="4"/>
-      <c r="Y158" s="4"/>
-      <c r="Z158" s="4"/>
-      <c r="AA158" s="4"/>
+      <c r="X158" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y158" s="4">
+        <v>27</v>
+      </c>
+      <c r="Z158" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA158" s="4">
+        <v>27</v>
+      </c>
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
       <c r="AD158" s="4"/>
@@ -10144,10 +10604,16 @@
       <c r="AG158" s="4"/>
     </row>
     <row r="159" spans="1:33" ht="22.5">
-      <c r="A159" s="3"/>
-      <c r="B159" s="4"/>
+      <c r="A159" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E159" s="3"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -10155,23 +10621,45 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
+      <c r="L159" s="4">
+        <v>15</v>
+      </c>
       <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
+      <c r="N159" s="4">
+        <v>16</v>
+      </c>
       <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
+      <c r="P159" s="4">
+        <v>17</v>
+      </c>
       <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
+      <c r="R159" s="4">
+        <v>19</v>
+      </c>
       <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
+      <c r="T159" s="4">
+        <v>20</v>
+      </c>
       <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
+      <c r="V159" s="4">
+        <v>21</v>
+      </c>
       <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
-      <c r="Y159" s="4"/>
-      <c r="Z159" s="4"/>
-      <c r="AA159" s="4"/>
-      <c r="AB159" s="4"/>
+      <c r="X159" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y159" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z159" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA159" s="4">
+        <v>29</v>
+      </c>
+      <c r="AB159" s="4">
+        <v>31</v>
+      </c>
       <c r="AC159" s="4"/>
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
@@ -10179,10 +10667,16 @@
       <c r="AG159" s="4"/>
     </row>
     <row r="160" spans="1:33" ht="22.5">
-      <c r="A160" s="3"/>
-      <c r="B160" s="4"/>
+      <c r="A160" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E160" s="3"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -10190,20 +10684,36 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
+      <c r="L160" s="4">
+        <v>8</v>
+      </c>
       <c r="M160" s="4"/>
-      <c r="N160" s="4"/>
+      <c r="N160" s="4">
+        <v>9</v>
+      </c>
       <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
+      <c r="P160" s="4">
+        <v>10</v>
+      </c>
       <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
+      <c r="R160" s="4">
+        <v>11</v>
+      </c>
       <c r="S160" s="4"/>
-      <c r="T160" s="4"/>
+      <c r="T160" s="4">
+        <v>13</v>
+      </c>
       <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
+      <c r="V160" s="4">
+        <v>14</v>
+      </c>
       <c r="W160" s="4"/>
-      <c r="X160" s="4"/>
-      <c r="Y160" s="4"/>
+      <c r="X160" s="4">
+        <v>16</v>
+      </c>
+      <c r="Y160" s="4">
+        <v>17</v>
+      </c>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
       <c r="AB160" s="4"/>
@@ -10214,30 +10724,60 @@
       <c r="AG160" s="4"/>
     </row>
     <row r="161" spans="1:33" ht="22.5">
-      <c r="A161" s="3"/>
-      <c r="B161" s="4"/>
+      <c r="A161" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="4"/>
-      <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
+      <c r="J161" s="4">
+        <v>16</v>
+      </c>
+      <c r="K161" s="4">
+        <v>16</v>
+      </c>
+      <c r="L161" s="4">
+        <v>16</v>
+      </c>
+      <c r="M161" s="4">
+        <v>18</v>
+      </c>
+      <c r="N161" s="4">
+        <v>17</v>
+      </c>
+      <c r="O161" s="4">
+        <v>21</v>
+      </c>
+      <c r="P161" s="4">
+        <v>18</v>
+      </c>
+      <c r="Q161" s="4">
+        <v>24</v>
+      </c>
+      <c r="R161" s="4">
+        <v>20</v>
+      </c>
       <c r="S161" s="4"/>
-      <c r="T161" s="4"/>
+      <c r="T161" s="4">
+        <v>21</v>
+      </c>
       <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
+      <c r="V161" s="4">
+        <v>22</v>
+      </c>
       <c r="W161" s="4"/>
-      <c r="X161" s="4"/>
+      <c r="X161" s="4">
+        <v>24</v>
+      </c>
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
@@ -10249,28 +10789,48 @@
       <c r="AG161" s="4"/>
     </row>
     <row r="162" spans="1:33" ht="22.5">
-      <c r="A162" s="3"/>
-      <c r="B162" s="4"/>
+      <c r="A162" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E162" s="3"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
+      <c r="J162" s="4">
+        <v>8</v>
+      </c>
       <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
+      <c r="L162" s="4">
+        <v>8</v>
+      </c>
       <c r="M162" s="4"/>
-      <c r="N162" s="4"/>
+      <c r="N162" s="4">
+        <v>9</v>
+      </c>
       <c r="O162" s="4"/>
-      <c r="P162" s="4"/>
+      <c r="P162" s="4">
+        <v>9</v>
+      </c>
       <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
+      <c r="R162" s="4">
+        <v>9</v>
+      </c>
       <c r="S162" s="4"/>
-      <c r="T162" s="4"/>
+      <c r="T162" s="4">
+        <v>10</v>
+      </c>
       <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
+      <c r="V162" s="4">
+        <v>10</v>
+      </c>
       <c r="W162" s="4"/>
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
@@ -10284,10 +10844,16 @@
       <c r="AG162" s="4"/>
     </row>
     <row r="163" spans="1:33" ht="22.5">
-      <c r="A163" s="3"/>
-      <c r="B163" s="4"/>
+      <c r="A163" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="D163" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E163" s="3"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -10295,19 +10861,33 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
+      <c r="L163" s="4">
+        <v>19</v>
+      </c>
       <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
+      <c r="N163" s="4">
+        <v>20</v>
+      </c>
       <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
+      <c r="P163" s="4">
+        <v>21</v>
+      </c>
       <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
+      <c r="R163" s="4">
+        <v>23</v>
+      </c>
       <c r="S163" s="4"/>
-      <c r="T163" s="4"/>
+      <c r="T163" s="4">
+        <v>24</v>
+      </c>
       <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
+      <c r="V163" s="4">
+        <v>25</v>
+      </c>
       <c r="W163" s="4"/>
-      <c r="X163" s="4"/>
+      <c r="X163" s="4">
+        <v>27</v>
+      </c>
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
@@ -10319,10 +10899,16 @@
       <c r="AG163" s="4"/>
     </row>
     <row r="164" spans="1:33" ht="22.5">
-      <c r="A164" s="3"/>
-      <c r="B164" s="4"/>
+      <c r="A164" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E164" s="3"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -10330,19 +10916,33 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
+      <c r="L164" s="4">
+        <v>14</v>
+      </c>
       <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
+      <c r="N164" s="4">
+        <v>15</v>
+      </c>
       <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
+      <c r="P164" s="4">
+        <v>16</v>
+      </c>
       <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
+      <c r="R164" s="4">
+        <v>18</v>
+      </c>
       <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
+      <c r="T164" s="4">
+        <v>19</v>
+      </c>
       <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
+      <c r="V164" s="4">
+        <v>20</v>
+      </c>
       <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
+      <c r="X164" s="4">
+        <v>22</v>
+      </c>
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
@@ -10354,10 +10954,16 @@
       <c r="AG164" s="4"/>
     </row>
     <row r="165" spans="1:33" ht="22.5">
-      <c r="A165" s="3"/>
-      <c r="B165" s="4"/>
+      <c r="A165" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="D165" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E165" s="3"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -10365,19 +10971,33 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
+      <c r="L165" s="4">
+        <v>6</v>
+      </c>
       <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
+      <c r="N165" s="4">
+        <v>6</v>
+      </c>
       <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
+      <c r="P165" s="4">
+        <v>6.5</v>
+      </c>
       <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
+      <c r="R165" s="4">
+        <v>6.5</v>
+      </c>
       <c r="S165" s="4"/>
-      <c r="T165" s="4"/>
+      <c r="T165" s="4">
+        <v>6.5</v>
+      </c>
       <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
+      <c r="V165" s="4">
+        <v>7</v>
+      </c>
       <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
+      <c r="X165" s="4">
+        <v>7</v>
+      </c>
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
@@ -10389,10 +11009,16 @@
       <c r="AG165" s="4"/>
     </row>
     <row r="166" spans="1:33" ht="22.5">
-      <c r="A166" s="3"/>
-      <c r="B166" s="4"/>
+      <c r="A166" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="C166" s="10"/>
-      <c r="D166" s="4"/>
+      <c r="D166" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="E166" s="3"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -10400,20 +11026,36 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
+      <c r="L166" s="4">
+        <v>15</v>
+      </c>
       <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
+      <c r="N166" s="4">
+        <v>17</v>
+      </c>
       <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
+      <c r="P166" s="4">
+        <v>18</v>
+      </c>
       <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
+      <c r="R166" s="4">
+        <v>19</v>
+      </c>
       <c r="S166" s="4"/>
-      <c r="T166" s="4"/>
+      <c r="T166" s="4">
+        <v>20</v>
+      </c>
       <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
+      <c r="V166" s="4">
+        <v>22</v>
+      </c>
       <c r="W166" s="4"/>
-      <c r="X166" s="4"/>
-      <c r="Y166" s="4"/>
+      <c r="X166" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y166" s="4">
+        <v>25</v>
+      </c>
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
       <c r="AB166" s="4"/>
@@ -10424,10 +11066,16 @@
       <c r="AG166" s="4"/>
     </row>
     <row r="167" spans="1:33" ht="22.5">
-      <c r="A167" s="3"/>
-      <c r="B167" s="4"/>
+      <c r="A167" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E167" s="3"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -10435,19 +11083,33 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
+      <c r="L167" s="4">
+        <v>20</v>
+      </c>
       <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
+      <c r="N167" s="4">
+        <v>21</v>
+      </c>
       <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
+      <c r="P167" s="4">
+        <v>22</v>
+      </c>
       <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
+      <c r="R167" s="4">
+        <v>23</v>
+      </c>
       <c r="S167" s="4"/>
-      <c r="T167" s="4"/>
+      <c r="T167" s="4">
+        <v>24</v>
+      </c>
       <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
+      <c r="V167" s="4">
+        <v>26</v>
+      </c>
       <c r="W167" s="4"/>
-      <c r="X167" s="4"/>
+      <c r="X167" s="4">
+        <v>29</v>
+      </c>
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
@@ -10459,10 +11121,16 @@
       <c r="AG167" s="4"/>
     </row>
     <row r="168" spans="1:33" ht="22.5">
-      <c r="A168" s="3"/>
-      <c r="B168" s="4"/>
+      <c r="A168" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="E168" s="3"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -10470,19 +11138,33 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
+      <c r="L168" s="4">
+        <v>12</v>
+      </c>
       <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
+      <c r="N168" s="4">
+        <v>12</v>
+      </c>
       <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
+      <c r="P168" s="4">
+        <v>12</v>
+      </c>
       <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
+      <c r="R168" s="4">
+        <v>12</v>
+      </c>
       <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
+      <c r="T168" s="4">
+        <v>12</v>
+      </c>
       <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
+      <c r="V168" s="4">
+        <v>12</v>
+      </c>
       <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
+      <c r="X168" s="4">
+        <v>12</v>
+      </c>
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
@@ -10494,10 +11176,16 @@
       <c r="AG168" s="4"/>
     </row>
     <row r="169" spans="1:33" ht="22.5">
-      <c r="A169" s="3"/>
-      <c r="B169" s="4"/>
+      <c r="A169" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="E169" s="3"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -10505,20 +11193,36 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
+      <c r="L169" s="4">
+        <v>15</v>
+      </c>
       <c r="M169" s="4"/>
-      <c r="N169" s="4"/>
+      <c r="N169" s="4">
+        <v>17</v>
+      </c>
       <c r="O169" s="4"/>
-      <c r="P169" s="4"/>
+      <c r="P169" s="4">
+        <v>18</v>
+      </c>
       <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
+      <c r="R169" s="4">
+        <v>19</v>
+      </c>
       <c r="S169" s="4"/>
-      <c r="T169" s="4"/>
+      <c r="T169" s="4">
+        <v>20</v>
+      </c>
       <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
+      <c r="V169" s="4">
+        <v>22</v>
+      </c>
       <c r="W169" s="4"/>
-      <c r="X169" s="4"/>
-      <c r="Y169" s="4"/>
+      <c r="X169" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y169" s="4">
+        <v>25</v>
+      </c>
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
@@ -10529,10 +11233,16 @@
       <c r="AG169" s="4"/>
     </row>
     <row r="170" spans="1:33" ht="22.5">
-      <c r="A170" s="3"/>
-      <c r="B170" s="4"/>
+      <c r="A170" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>373</v>
+      </c>
       <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E170" s="3"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
@@ -10540,19 +11250,33 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
+      <c r="L170" s="4">
+        <v>17</v>
+      </c>
       <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
+      <c r="N170" s="4">
+        <v>18</v>
+      </c>
       <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
+      <c r="P170" s="4">
+        <v>19</v>
+      </c>
       <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
+      <c r="R170" s="4">
+        <v>21</v>
+      </c>
       <c r="S170" s="4"/>
-      <c r="T170" s="4"/>
+      <c r="T170" s="4">
+        <v>22</v>
+      </c>
       <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
+      <c r="V170" s="4">
+        <v>23</v>
+      </c>
       <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
+      <c r="X170" s="4">
+        <v>24</v>
+      </c>
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
@@ -10564,10 +11288,16 @@
       <c r="AG170" s="4"/>
     </row>
     <row r="171" spans="1:33" ht="22.5">
-      <c r="A171" s="3"/>
-      <c r="B171" s="4"/>
+      <c r="A171" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E171" s="3"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
@@ -10575,19 +11305,33 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
+      <c r="L171" s="4">
+        <v>15</v>
+      </c>
       <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
+      <c r="N171" s="4">
+        <v>16</v>
+      </c>
       <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
+      <c r="P171" s="4">
+        <v>17</v>
+      </c>
       <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
+      <c r="R171" s="4">
+        <v>19</v>
+      </c>
       <c r="S171" s="4"/>
-      <c r="T171" s="4"/>
+      <c r="T171" s="4">
+        <v>20</v>
+      </c>
       <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
+      <c r="V171" s="4">
+        <v>21</v>
+      </c>
       <c r="W171" s="4"/>
-      <c r="X171" s="4"/>
+      <c r="X171" s="4">
+        <v>22</v>
+      </c>
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
@@ -10599,10 +11343,16 @@
       <c r="AG171" s="4"/>
     </row>
     <row r="172" spans="1:33" ht="22.5">
-      <c r="A172" s="3"/>
-      <c r="B172" s="4"/>
+      <c r="A172" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E172" s="3"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -10610,19 +11360,33 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
+      <c r="L172" s="4">
+        <v>16</v>
+      </c>
       <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
+      <c r="N172" s="4">
+        <v>17</v>
+      </c>
       <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
+      <c r="P172" s="4">
+        <v>18</v>
+      </c>
       <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
+      <c r="R172" s="4">
+        <v>20</v>
+      </c>
       <c r="S172" s="4"/>
-      <c r="T172" s="4"/>
+      <c r="T172" s="4">
+        <v>21</v>
+      </c>
       <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
+      <c r="V172" s="4">
+        <v>22</v>
+      </c>
       <c r="W172" s="4"/>
-      <c r="X172" s="4"/>
+      <c r="X172" s="4">
+        <v>23</v>
+      </c>
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
@@ -10634,10 +11398,16 @@
       <c r="AG172" s="4"/>
     </row>
     <row r="173" spans="1:33" ht="22.5">
-      <c r="A173" s="3"/>
-      <c r="B173" s="4"/>
+      <c r="A173" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="D173" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E173" s="3"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -10645,22 +11415,40 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
+      <c r="L173" s="4">
+        <v>14</v>
+      </c>
       <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
+      <c r="N173" s="4">
+        <v>15</v>
+      </c>
       <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
+      <c r="P173" s="4">
+        <v>16</v>
+      </c>
       <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
+      <c r="R173" s="4">
+        <v>18</v>
+      </c>
       <c r="S173" s="4"/>
-      <c r="T173" s="4"/>
+      <c r="T173" s="4">
+        <v>19</v>
+      </c>
       <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
+      <c r="V173" s="4">
+        <v>20</v>
+      </c>
       <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
+      <c r="X173" s="4">
+        <v>21</v>
+      </c>
       <c r="Y173" s="4"/>
-      <c r="Z173" s="4"/>
-      <c r="AA173" s="4"/>
+      <c r="Z173" s="4">
+        <v>24</v>
+      </c>
+      <c r="AA173" s="4">
+        <v>24</v>
+      </c>
       <c r="AB173" s="4"/>
       <c r="AC173" s="4"/>
       <c r="AD173" s="4"/>
@@ -10669,10 +11457,16 @@
       <c r="AG173" s="4"/>
     </row>
     <row r="174" spans="1:33" ht="22.5">
-      <c r="A174" s="3"/>
-      <c r="B174" s="4"/>
+      <c r="A174" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="D174" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E174" s="3"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
@@ -10680,21 +11474,37 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
+      <c r="L174" s="4">
+        <v>15</v>
+      </c>
       <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
+      <c r="N174" s="4">
+        <v>16</v>
+      </c>
       <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
+      <c r="P174" s="4">
+        <v>17</v>
+      </c>
       <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
+      <c r="R174" s="4">
+        <v>19</v>
+      </c>
       <c r="S174" s="4"/>
-      <c r="T174" s="4"/>
+      <c r="T174" s="4">
+        <v>20</v>
+      </c>
       <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
+      <c r="V174" s="4">
+        <v>21</v>
+      </c>
       <c r="W174" s="4"/>
-      <c r="X174" s="4"/>
+      <c r="X174" s="4">
+        <v>23</v>
+      </c>
       <c r="Y174" s="4"/>
-      <c r="Z174" s="4"/>
+      <c r="Z174" s="4">
+        <v>25</v>
+      </c>
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
       <c r="AC174" s="4"/>
@@ -10704,10 +11514,16 @@
       <c r="AG174" s="4"/>
     </row>
     <row r="175" spans="1:33" ht="22.5">
-      <c r="A175" s="3"/>
-      <c r="B175" s="4"/>
+      <c r="A175" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E175" s="3"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
@@ -10715,21 +11531,37 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
+      <c r="L175" s="4">
+        <v>15</v>
+      </c>
       <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
+      <c r="N175" s="4">
+        <v>16</v>
+      </c>
       <c r="O175" s="4"/>
-      <c r="P175" s="4"/>
+      <c r="P175" s="4">
+        <v>17</v>
+      </c>
       <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
+      <c r="R175" s="4">
+        <v>19</v>
+      </c>
       <c r="S175" s="4"/>
-      <c r="T175" s="4"/>
+      <c r="T175" s="4">
+        <v>20</v>
+      </c>
       <c r="U175" s="4"/>
-      <c r="V175" s="4"/>
+      <c r="V175" s="4">
+        <v>21</v>
+      </c>
       <c r="W175" s="4"/>
-      <c r="X175" s="4"/>
+      <c r="X175" s="4">
+        <v>23</v>
+      </c>
       <c r="Y175" s="4"/>
-      <c r="Z175" s="4"/>
+      <c r="Z175" s="4">
+        <v>25</v>
+      </c>
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="4"/>
@@ -12209,7 +13041,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{C38E435B-52AE-4AEF-A142-B4344113ED3E}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{051CB03C-7B33-4631-B0E8-C99247098A23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/price.xlsx
+++ b/price.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workplace_python\ShopTools\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workplace_python\ShopTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F17F5-F192-48D4-9007-E32CF0DA58D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049D315-4F75-4527-9C9D-80FE3A0CA23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="391">
   <si>
     <t>商品</t>
   </si>
@@ -512,9 +512,6 @@
   </si>
   <si>
     <t>苍南县宜山镇谢垟底新村第六幢111号一层</t>
-  </si>
-  <si>
-    <t>王文丰</t>
   </si>
   <si>
     <t>L90069</t>
@@ -1183,6 +1180,30 @@
   </si>
   <si>
     <t>星空棉套装</t>
+  </si>
+  <si>
+    <t>环城西路125号 阳光幼儿园</t>
+  </si>
+  <si>
+    <t>220143</t>
+  </si>
+  <si>
+    <t>贝智佳</t>
+  </si>
+  <si>
+    <t>220144</t>
+  </si>
+  <si>
+    <t>220145</t>
+  </si>
+  <si>
+    <t>杨梅绒睡衣套装</t>
+  </si>
+  <si>
+    <t>220146</t>
+  </si>
+  <si>
+    <t>纯棉单裤</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,6 +1331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE74025"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1324,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1405,6 +1432,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1685,18 +1718,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="39.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.73046875" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="27.75">
@@ -1771,7 +1804,7 @@
         <v>180</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>10</v>
@@ -1786,7 +1819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="22.5">
+    <row r="2" spans="1:33" ht="23.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1884,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:33" ht="22.5">
+    <row r="3" spans="1:33" ht="23.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1902,7 +1935,7 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="1:33" ht="22.5">
+    <row r="4" spans="1:33" ht="23.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +1994,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
     </row>
-    <row r="5" spans="1:33" ht="22.5">
+    <row r="5" spans="1:33" ht="23.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2018,7 +2051,7 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33" ht="22.5">
+    <row r="6" spans="1:33" ht="23.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -2069,14 +2102,14 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:33" ht="157.5">
+    <row r="7" spans="1:33" ht="162.75">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
@@ -2085,7 +2118,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2112,7 +2145,7 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:33" ht="22.5">
+    <row r="8" spans="1:33" ht="23.25">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -2153,7 +2186,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:33" ht="22.5">
+    <row r="9" spans="1:33" ht="23.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2227,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:33" ht="22.5">
+    <row r="10" spans="1:33" ht="23.25">
       <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
@@ -2235,7 +2268,7 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:33" ht="22.5">
+    <row r="11" spans="1:33" ht="23.25">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -2280,7 +2313,7 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:33" ht="22.5">
+    <row r="12" spans="1:33" ht="23.25">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -2321,7 +2354,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:33" ht="22.5">
+    <row r="13" spans="1:33" ht="23.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -2362,7 +2395,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:33" ht="22.5">
+    <row r="14" spans="1:33" ht="23.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -2403,7 +2436,7 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:33" ht="22.5">
+    <row r="15" spans="1:33" ht="23.25">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2477,7 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:33" ht="22.5">
+    <row r="16" spans="1:33" ht="23.25">
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
@@ -2485,7 +2518,7 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="1:33" ht="22.5">
+    <row r="17" spans="1:33" ht="23.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -2544,7 +2577,7 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="1:33" ht="135">
+    <row r="18" spans="1:33" ht="139.5">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -2565,7 +2598,7 @@
         <v>681644757</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2607,13 +2640,13 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="1:33" ht="152.65">
+    <row r="19" spans="1:33" ht="156.75">
       <c r="A19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="11"/>
@@ -2650,7 +2683,7 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
     </row>
-    <row r="20" spans="1:33" ht="22.5">
+    <row r="20" spans="1:33" ht="23.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2707,7 +2740,7 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="1:33" ht="22.5">
+    <row r="21" spans="1:33" ht="23.25">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
@@ -2748,7 +2781,7 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:33" ht="22.5">
+    <row r="22" spans="1:33" ht="23.25">
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
@@ -2789,7 +2822,7 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="1:33" ht="22.5">
+    <row r="23" spans="1:33" ht="23.25">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -2846,7 +2879,7 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:33" ht="22.5">
+    <row r="24" spans="1:33" ht="23.25">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -2903,7 +2936,7 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="1:33" ht="22.5">
+    <row r="25" spans="1:33" ht="23.25">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
@@ -2944,7 +2977,7 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
     </row>
-    <row r="26" spans="1:33" ht="22.5">
+    <row r="26" spans="1:33" ht="23.25">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -2985,7 +3018,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
     </row>
-    <row r="27" spans="1:33" ht="22.5">
+    <row r="27" spans="1:33" ht="23.25">
       <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3004,35 +3037,35 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="Y27" s="4">
         <v>28</v>
@@ -3052,7 +3085,7 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="1:33" ht="22.5">
+    <row r="28" spans="1:33" ht="23.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3113,7 +3146,7 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="1:33" ht="22.5">
+    <row r="29" spans="1:33" ht="23.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3174,7 +3207,7 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="1:33" ht="22.5">
+    <row r="30" spans="1:33" ht="23.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -3213,7 +3246,7 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
     </row>
-    <row r="31" spans="1:33" ht="22.5">
+    <row r="31" spans="1:33" ht="23.25">
       <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
@@ -3272,7 +3305,7 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
     </row>
-    <row r="32" spans="1:33" ht="22.5">
+    <row r="32" spans="1:33" ht="23.25">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -3327,12 +3360,12 @@
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
     </row>
-    <row r="33" spans="1:33" ht="22.5">
+    <row r="33" spans="1:33" ht="23.25">
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>79</v>
@@ -3394,7 +3427,7 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="1:33" ht="22.5">
+    <row r="34" spans="1:33" ht="23.25">
       <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
@@ -3451,7 +3484,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:33" ht="22.5">
+    <row r="35" spans="1:33" ht="23.25">
       <c r="A35" s="3" t="s">
         <v>84</v>
       </c>
@@ -3506,12 +3539,12 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="1:33" ht="22.5">
+    <row r="36" spans="1:33" ht="23.25">
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>87</v>
@@ -3565,12 +3598,12 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="1:33" ht="22.5">
+    <row r="37" spans="1:33" ht="23.25">
       <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>90</v>
@@ -3628,12 +3661,12 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="1:33" ht="22.5">
+    <row r="38" spans="1:33" ht="23.25">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>92</v>
@@ -3687,7 +3720,7 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
     </row>
-    <row r="39" spans="1:33" ht="22.5">
+    <row r="39" spans="1:33" ht="23.25">
       <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
@@ -3744,7 +3777,7 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="1:33" ht="22.5">
+    <row r="40" spans="1:33" ht="23.25">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
@@ -3785,7 +3818,7 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="1:33" ht="22.5">
+    <row r="41" spans="1:33" ht="23.25">
       <c r="A41" s="3" t="s">
         <v>96</v>
       </c>
@@ -3826,7 +3859,7 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="1:33" ht="22.5">
+    <row r="42" spans="1:33" ht="23.25">
       <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
@@ -3865,7 +3898,7 @@
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="1:33" ht="22.5">
+    <row r="43" spans="1:33" ht="23.25">
       <c r="A43" s="3" t="s">
         <v>99</v>
       </c>
@@ -3904,7 +3937,7 @@
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="1:33" ht="22.5">
+    <row r="44" spans="1:33" ht="23.25">
       <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
@@ -3965,7 +3998,7 @@
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="1:33" ht="22.5">
+    <row r="45" spans="1:33" ht="23.25">
       <c r="A45" s="3" t="s">
         <v>104</v>
       </c>
@@ -4020,7 +4053,7 @@
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="1:33" ht="22.5">
+    <row r="46" spans="1:33" ht="23.25">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -4075,7 +4108,7 @@
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="1:33" ht="22.5">
+    <row r="47" spans="1:33" ht="23.25">
       <c r="A47" s="3" t="s">
         <v>106</v>
       </c>
@@ -4130,7 +4163,7 @@
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="1:33" ht="22.5">
+    <row r="48" spans="1:33" ht="23.25">
       <c r="A48" s="3" t="s">
         <v>107</v>
       </c>
@@ -4187,7 +4220,7 @@
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="1:33" ht="22.5">
+    <row r="49" spans="1:33" ht="23.25">
       <c r="A49" s="3" t="s">
         <v>112</v>
       </c>
@@ -4248,7 +4281,7 @@
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
     </row>
-    <row r="50" spans="1:33" ht="22.5">
+    <row r="50" spans="1:33" ht="23.25">
       <c r="A50" s="3" t="s">
         <v>116</v>
       </c>
@@ -4307,7 +4340,7 @@
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
     </row>
-    <row r="51" spans="1:33" ht="22.5">
+    <row r="51" spans="1:33" ht="23.25">
       <c r="A51" s="3" t="s">
         <v>120</v>
       </c>
@@ -4362,7 +4395,7 @@
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
     </row>
-    <row r="52" spans="1:33" ht="22.5">
+    <row r="52" spans="1:33" ht="23.25">
       <c r="A52" s="3" t="s">
         <v>122</v>
       </c>
@@ -4419,7 +4452,7 @@
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
     </row>
-    <row r="53" spans="1:33" ht="22.5">
+    <row r="53" spans="1:33" ht="23.25">
       <c r="A53" s="3" t="s">
         <v>123</v>
       </c>
@@ -4478,7 +4511,7 @@
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
     </row>
-    <row r="54" spans="1:33" ht="22.5">
+    <row r="54" spans="1:33" ht="23.25">
       <c r="A54" s="3" t="s">
         <v>125</v>
       </c>
@@ -4537,7 +4570,7 @@
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
     </row>
-    <row r="55" spans="1:33" ht="22.5">
+    <row r="55" spans="1:33" ht="23.25">
       <c r="A55" s="3" t="s">
         <v>127</v>
       </c>
@@ -4596,7 +4629,7 @@
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
     </row>
-    <row r="56" spans="1:33" ht="22.5">
+    <row r="56" spans="1:33" ht="23.25">
       <c r="A56" s="3" t="s">
         <v>129</v>
       </c>
@@ -4659,7 +4692,7 @@
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
     </row>
-    <row r="57" spans="1:33" ht="22.5">
+    <row r="57" spans="1:33" ht="23.25">
       <c r="A57" s="3" t="s">
         <v>133</v>
       </c>
@@ -4718,7 +4751,7 @@
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
     </row>
-    <row r="58" spans="1:33" ht="22.5">
+    <row r="58" spans="1:33" ht="23.25">
       <c r="A58" s="3" t="s">
         <v>135</v>
       </c>
@@ -4785,7 +4818,7 @@
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
     </row>
-    <row r="59" spans="1:33" ht="22.5">
+    <row r="59" spans="1:33" ht="23.25">
       <c r="A59" s="3" t="s">
         <v>137</v>
       </c>
@@ -4850,7 +4883,7 @@
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
     </row>
-    <row r="60" spans="1:33" ht="22.5">
+    <row r="60" spans="1:33" ht="23.25">
       <c r="A60" s="3" t="s">
         <v>139</v>
       </c>
@@ -4909,7 +4942,7 @@
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
     </row>
-    <row r="61" spans="1:33" ht="22.5">
+    <row r="61" spans="1:33" ht="23.25">
       <c r="A61" s="3" t="s">
         <v>141</v>
       </c>
@@ -4968,7 +5001,7 @@
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
     </row>
-    <row r="62" spans="1:33" ht="22.5">
+    <row r="62" spans="1:33" ht="23.25">
       <c r="A62" s="3" t="s">
         <v>143</v>
       </c>
@@ -5027,7 +5060,7 @@
       <c r="AF62" s="4"/>
       <c r="AG62" s="4"/>
     </row>
-    <row r="63" spans="1:33" ht="22.5">
+    <row r="63" spans="1:33" ht="23.25">
       <c r="A63" s="3" t="s">
         <v>145</v>
       </c>
@@ -5088,7 +5121,7 @@
       <c r="AF63" s="4"/>
       <c r="AG63" s="4"/>
     </row>
-    <row r="64" spans="1:33" ht="22.5">
+    <row r="64" spans="1:33" ht="23.25">
       <c r="A64" s="3" t="s">
         <v>147</v>
       </c>
@@ -5143,7 +5176,7 @@
       <c r="AF64" s="4"/>
       <c r="AG64" s="4"/>
     </row>
-    <row r="65" spans="1:33" ht="22.5">
+    <row r="65" spans="1:33" ht="23.25">
       <c r="A65" s="3" t="s">
         <v>151</v>
       </c>
@@ -5202,7 +5235,7 @@
       <c r="AF65" s="4"/>
       <c r="AG65" s="4"/>
     </row>
-    <row r="66" spans="1:33" ht="22.5">
+    <row r="66" spans="1:33" ht="23.25">
       <c r="A66" s="3" t="s">
         <v>153</v>
       </c>
@@ -5261,7 +5294,7 @@
       <c r="AF66" s="4"/>
       <c r="AG66" s="4"/>
     </row>
-    <row r="67" spans="1:33" ht="22.5">
+    <row r="67" spans="1:33" ht="23.25">
       <c r="A67" s="3" t="s">
         <v>155</v>
       </c>
@@ -5316,7 +5349,7 @@
       <c r="AF67" s="4"/>
       <c r="AG67" s="4"/>
     </row>
-    <row r="68" spans="1:33" ht="22.5">
+    <row r="68" spans="1:33" ht="23.25">
       <c r="A68" s="3" t="s">
         <v>158</v>
       </c>
@@ -5371,7 +5404,7 @@
       <c r="AF68" s="4"/>
       <c r="AG68" s="4"/>
     </row>
-    <row r="69" spans="1:33" ht="22.5">
+    <row r="69" spans="1:33" ht="23.25">
       <c r="A69" s="3" t="s">
         <v>158</v>
       </c>
@@ -5426,7 +5459,7 @@
       <c r="AF69" s="4"/>
       <c r="AG69" s="4"/>
     </row>
-    <row r="70" spans="1:33" ht="22.5">
+    <row r="70" spans="1:33" ht="23.25">
       <c r="A70" s="3" t="s">
         <v>158</v>
       </c>
@@ -5479,7 +5512,7 @@
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
     </row>
-    <row r="71" spans="1:33" ht="22.5">
+    <row r="71" spans="1:33" ht="23.25">
       <c r="A71" s="3" t="s">
         <v>162</v>
       </c>
@@ -5488,7 +5521,7 @@
         <v>163</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="4"/>
@@ -5520,18 +5553,18 @@
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
     </row>
-    <row r="72" spans="1:33" ht="22.5">
+    <row r="72" spans="1:33" ht="23.25">
       <c r="A72" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="4"/>
@@ -5579,12 +5612,12 @@
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
     </row>
-    <row r="73" spans="1:33" ht="22.5">
+    <row r="73" spans="1:33" ht="23.25">
       <c r="A73" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>160</v>
@@ -5593,7 +5626,7 @@
         <v>161</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
@@ -5654,16 +5687,16 @@
       <c r="AF73" s="14"/>
       <c r="AG73" s="14"/>
     </row>
-    <row r="74" spans="1:33" ht="22.5">
+    <row r="74" spans="1:33" ht="23.25">
       <c r="A74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="16"/>
@@ -5695,16 +5728,16 @@
       <c r="AF74" s="16"/>
       <c r="AG74" s="16"/>
     </row>
-    <row r="75" spans="1:33" ht="22.5">
+    <row r="75" spans="1:33" ht="23.25">
       <c r="A75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="4"/>
@@ -5764,12 +5797,12 @@
       <c r="AF75" s="4"/>
       <c r="AG75" s="4"/>
     </row>
-    <row r="76" spans="1:33" ht="22.5">
+    <row r="76" spans="1:33" ht="23.25">
       <c r="A76" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>160</v>
@@ -5807,16 +5840,16 @@
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
     </row>
-    <row r="77" spans="1:33" ht="22.5">
+    <row r="77" spans="1:33" ht="23.25">
       <c r="A77" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="20"/>
@@ -5868,16 +5901,16 @@
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
     </row>
-    <row r="78" spans="1:33" ht="22.5">
+    <row r="78" spans="1:33" ht="23.25">
       <c r="A78" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4"/>
@@ -5933,12 +5966,12 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="22.5">
+    <row r="79" spans="1:33" ht="23.25">
       <c r="A79" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
@@ -5998,18 +6031,18 @@
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
     </row>
-    <row r="80" spans="1:33" ht="22.5">
+    <row r="80" spans="1:33" ht="23.25">
       <c r="A80" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="D80" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="19"/>
@@ -6065,18 +6098,18 @@
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
     </row>
-    <row r="81" spans="1:33" ht="22.5">
+    <row r="81" spans="1:33" ht="23.25">
       <c r="A81" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="C81" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="19"/>
@@ -6140,18 +6173,18 @@
       <c r="AF81" s="19"/>
       <c r="AG81" s="19"/>
     </row>
-    <row r="82" spans="1:33" ht="22.5">
+    <row r="82" spans="1:33" ht="23.25">
       <c r="A82" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="C82" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="19"/>
@@ -6201,12 +6234,12 @@
       <c r="AF82" s="19"/>
       <c r="AG82" s="19"/>
     </row>
-    <row r="83" spans="1:33" ht="22.5">
+    <row r="83" spans="1:33" ht="23.25">
       <c r="A83" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>90</v>
@@ -6266,12 +6299,12 @@
       <c r="AF83" s="19"/>
       <c r="AG83" s="19"/>
     </row>
-    <row r="84" spans="1:33" ht="45">
+    <row r="84" spans="1:33" ht="46.5">
       <c r="A84" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>160</v>
@@ -6280,7 +6313,7 @@
         <v>161</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
@@ -6343,18 +6376,18 @@
       <c r="AF84" s="19"/>
       <c r="AG84" s="19"/>
     </row>
-    <row r="85" spans="1:33" ht="22.5">
+    <row r="85" spans="1:33" ht="23.25">
       <c r="A85" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="4"/>
@@ -6388,12 +6421,12 @@
       <c r="AF85" s="4"/>
       <c r="AG85" s="4"/>
     </row>
-    <row r="86" spans="1:33" ht="22.5">
+    <row r="86" spans="1:33" ht="23.25">
       <c r="A86" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>90</v>
@@ -6431,12 +6464,12 @@
       <c r="AF86" s="4"/>
       <c r="AG86" s="4"/>
     </row>
-    <row r="87" spans="1:33" ht="22.5">
+    <row r="87" spans="1:33" ht="23.25">
       <c r="A87" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>90</v>
@@ -6474,12 +6507,12 @@
       <c r="AF87" s="4"/>
       <c r="AG87" s="4"/>
     </row>
-    <row r="88" spans="1:33" ht="22.5">
+    <row r="88" spans="1:33" ht="23.25">
       <c r="A88" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>160</v>
@@ -6488,13 +6521,13 @@
         <v>161</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -6547,12 +6580,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="22.5">
+    <row r="89" spans="1:33" ht="23.25">
       <c r="A89" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>160</v>
@@ -6567,7 +6600,9 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="J89" s="4">
+        <v>4</v>
+      </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4">
         <v>4</v>
@@ -6620,12 +6655,12 @@
       <c r="AF89" s="4"/>
       <c r="AG89" s="4"/>
     </row>
-    <row r="90" spans="1:33" ht="22.5">
+    <row r="90" spans="1:33" ht="23.25">
       <c r="A90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>131</v>
@@ -6681,16 +6716,16 @@
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
     </row>
-    <row r="91" spans="1:33" ht="22.5">
+    <row r="91" spans="1:33" ht="23.25">
       <c r="A91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="4"/>
@@ -6744,18 +6779,18 @@
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
     </row>
-    <row r="92" spans="1:33" ht="22.5">
+    <row r="92" spans="1:33" ht="23.25">
       <c r="A92" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="D92" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="4"/>
@@ -6815,14 +6850,14 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="22.5">
+    <row r="93" spans="1:33" ht="23.25">
       <c r="A93" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4"/>
@@ -6870,14 +6905,14 @@
       <c r="AF93" s="4"/>
       <c r="AG93" s="4"/>
     </row>
-    <row r="94" spans="1:33" ht="22.5">
+    <row r="94" spans="1:33" ht="23.25">
       <c r="A94" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4"/>
@@ -6925,14 +6960,14 @@
       <c r="AF94" s="4"/>
       <c r="AG94" s="4"/>
     </row>
-    <row r="95" spans="1:33" ht="22.5">
+    <row r="95" spans="1:33" ht="23.25">
       <c r="A95" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="4"/>
@@ -6978,14 +7013,14 @@
       <c r="AF95" s="4"/>
       <c r="AG95" s="4"/>
     </row>
-    <row r="96" spans="1:33" ht="22.5">
+    <row r="96" spans="1:33" ht="23.25">
       <c r="A96" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="4"/>
@@ -7031,12 +7066,12 @@
       <c r="AF96" s="4"/>
       <c r="AG96" s="4"/>
     </row>
-    <row r="97" spans="1:33" ht="22.5">
+    <row r="97" spans="1:33" ht="23.25">
       <c r="A97" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -7070,12 +7105,12 @@
       <c r="AF97" s="4"/>
       <c r="AG97" s="4"/>
     </row>
-    <row r="98" spans="1:33" ht="22.5">
+    <row r="98" spans="1:33" ht="23.25">
       <c r="A98" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
@@ -7121,18 +7156,18 @@
       <c r="AF98" s="4"/>
       <c r="AG98" s="4"/>
     </row>
-    <row r="99" spans="1:33" ht="22.5">
+    <row r="99" spans="1:33" ht="23.25">
       <c r="A99" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="4"/>
@@ -7186,12 +7221,12 @@
       <c r="AF99" s="4"/>
       <c r="AG99" s="4"/>
     </row>
-    <row r="100" spans="1:33" ht="22.5">
+    <row r="100" spans="1:33" ht="23.25">
       <c r="A100" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>90</v>
@@ -7255,16 +7290,16 @@
       <c r="AF100" s="4"/>
       <c r="AG100" s="4"/>
     </row>
-    <row r="101" spans="1:33" ht="22.5">
+    <row r="101" spans="1:33" ht="23.25">
       <c r="A101" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="4"/>
@@ -7316,16 +7351,16 @@
       <c r="AF101" s="4"/>
       <c r="AG101" s="4"/>
     </row>
-    <row r="102" spans="1:33" ht="22.5">
+    <row r="102" spans="1:33" ht="23.25">
       <c r="A102" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="4"/>
@@ -7369,16 +7404,16 @@
       <c r="AF102" s="4"/>
       <c r="AG102" s="4"/>
     </row>
-    <row r="103" spans="1:33" ht="22.5">
+    <row r="103" spans="1:33" ht="23.25">
       <c r="A103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="4"/>
@@ -7436,16 +7471,16 @@
       <c r="AF103" s="4"/>
       <c r="AG103" s="4"/>
     </row>
-    <row r="104" spans="1:33" ht="22.5">
+    <row r="104" spans="1:33" ht="23.25">
       <c r="A104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="4"/>
@@ -7499,14 +7534,14 @@
       <c r="AF104" s="4"/>
       <c r="AG104" s="4"/>
     </row>
-    <row r="105" spans="1:33" ht="22.5">
+    <row r="105" spans="1:33" ht="23.25">
       <c r="A105" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="4"/>
@@ -7538,16 +7573,16 @@
       <c r="AF105" s="4"/>
       <c r="AG105" s="4"/>
     </row>
-    <row r="106" spans="1:33" ht="22.5">
+    <row r="106" spans="1:33" ht="23.25">
       <c r="A106" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="4"/>
@@ -7591,16 +7626,16 @@
       <c r="AF106" s="4"/>
       <c r="AG106" s="4"/>
     </row>
-    <row r="107" spans="1:33" ht="22.5">
+    <row r="107" spans="1:33" ht="23.25">
       <c r="A107" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="4"/>
@@ -7654,12 +7689,12 @@
       <c r="AF107" s="4"/>
       <c r="AG107" s="4"/>
     </row>
-    <row r="108" spans="1:33" ht="22.5">
+    <row r="108" spans="1:33" ht="23.25">
       <c r="A108" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
@@ -7721,16 +7756,16 @@
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
     </row>
-    <row r="109" spans="1:33" ht="22.5">
+    <row r="109" spans="1:33" ht="23.25">
       <c r="A109" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="19"/>
@@ -7784,16 +7819,16 @@
       <c r="AF109" s="19"/>
       <c r="AG109" s="19"/>
     </row>
-    <row r="110" spans="1:33" ht="22.5">
+    <row r="110" spans="1:33" ht="23.25">
       <c r="A110" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="4"/>
@@ -7839,16 +7874,16 @@
       <c r="AF110" s="4"/>
       <c r="AG110" s="4"/>
     </row>
-    <row r="111" spans="1:33" ht="22.5">
+    <row r="111" spans="1:33" ht="23.25">
       <c r="A111" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="4"/>
@@ -7894,16 +7929,16 @@
       <c r="AF111" s="4"/>
       <c r="AG111" s="4"/>
     </row>
-    <row r="112" spans="1:33" ht="22.5">
+    <row r="112" spans="1:33" ht="23.25">
       <c r="A112" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="4"/>
@@ -7961,16 +7996,16 @@
       <c r="AF112" s="4"/>
       <c r="AG112" s="4"/>
     </row>
-    <row r="113" spans="1:33" ht="22.5">
+    <row r="113" spans="1:33" ht="23.25">
       <c r="A113" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="4"/>
@@ -8028,16 +8063,16 @@
       <c r="AF113" s="4"/>
       <c r="AG113" s="4"/>
     </row>
-    <row r="114" spans="1:33" ht="22.5">
+    <row r="114" spans="1:33" ht="23.25">
       <c r="A114" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="4"/>
@@ -8073,16 +8108,16 @@
       <c r="AF114" s="4"/>
       <c r="AG114" s="4"/>
     </row>
-    <row r="115" spans="1:33" ht="22.5">
+    <row r="115" spans="1:33" ht="23.25">
       <c r="A115" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="4"/>
@@ -8128,16 +8163,16 @@
       <c r="AF115" s="4"/>
       <c r="AG115" s="4"/>
     </row>
-    <row r="116" spans="1:33" ht="22.5">
+    <row r="116" spans="1:33" ht="23.25">
       <c r="A116" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="4"/>
@@ -8183,16 +8218,16 @@
       <c r="AF116" s="4"/>
       <c r="AG116" s="4"/>
     </row>
-    <row r="117" spans="1:33" ht="22.5">
+    <row r="117" spans="1:33" ht="23.25">
       <c r="A117" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="4"/>
@@ -8238,14 +8273,14 @@
       <c r="AF117" s="4"/>
       <c r="AG117" s="4"/>
     </row>
-    <row r="118" spans="1:33" ht="22.5">
+    <row r="118" spans="1:33" ht="23.25">
       <c r="A118" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="4"/>
@@ -8289,12 +8324,12 @@
       <c r="AF118" s="4"/>
       <c r="AG118" s="4"/>
     </row>
-    <row r="119" spans="1:33" ht="22.5">
+    <row r="119" spans="1:33" ht="23.25">
       <c r="A119" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
@@ -8344,12 +8379,12 @@
       <c r="AF119" s="4"/>
       <c r="AG119" s="4"/>
     </row>
-    <row r="120" spans="1:33" ht="22.5">
+    <row r="120" spans="1:33" ht="23.25">
       <c r="A120" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -8397,12 +8432,12 @@
       <c r="AF120" s="4"/>
       <c r="AG120" s="4"/>
     </row>
-    <row r="121" spans="1:33" ht="22.5">
+    <row r="121" spans="1:33" ht="23.25">
       <c r="A121" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -8458,12 +8493,12 @@
       <c r="AF121" s="4"/>
       <c r="AG121" s="4"/>
     </row>
-    <row r="122" spans="1:33" ht="22.5">
+    <row r="122" spans="1:33" ht="23.25">
       <c r="A122" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -8519,14 +8554,14 @@
       <c r="AF122" s="4"/>
       <c r="AG122" s="4"/>
     </row>
-    <row r="123" spans="1:33" ht="22.5">
+    <row r="123" spans="1:33" ht="23.25">
       <c r="A123" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="4"/>
@@ -8578,9 +8613,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="22.5">
+    <row r="124" spans="1:33" ht="23.25">
       <c r="A124" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B124" s="4">
         <v>220053</v>
@@ -8629,16 +8664,16 @@
       <c r="AF124" s="4"/>
       <c r="AG124" s="4"/>
     </row>
-    <row r="125" spans="1:33" ht="22.5">
+    <row r="125" spans="1:33" ht="23.25">
       <c r="A125" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C125" s="26"/>
       <c r="D125" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="26"/>
@@ -8682,16 +8717,16 @@
       <c r="AF125" s="26"/>
       <c r="AG125" s="26"/>
     </row>
-    <row r="126" spans="1:33" ht="22.5">
+    <row r="126" spans="1:33" ht="23.25">
       <c r="A126" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="4"/>
@@ -8739,16 +8774,16 @@
       <c r="AF126" s="4"/>
       <c r="AG126" s="4"/>
     </row>
-    <row r="127" spans="1:33" ht="22.5">
+    <row r="127" spans="1:33" ht="23.25">
       <c r="A127" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="4"/>
@@ -8794,16 +8829,16 @@
       <c r="AF127" s="4"/>
       <c r="AG127" s="4"/>
     </row>
-    <row r="128" spans="1:33" ht="22.5">
+    <row r="128" spans="1:33" ht="23.25">
       <c r="A128" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="4"/>
@@ -8857,16 +8892,16 @@
       <c r="AF128" s="4"/>
       <c r="AG128" s="4"/>
     </row>
-    <row r="129" spans="1:33" ht="22.5">
+    <row r="129" spans="1:33" ht="23.25">
       <c r="A129" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="4"/>
@@ -8914,16 +8949,16 @@
       <c r="AF129" s="4"/>
       <c r="AG129" s="4"/>
     </row>
-    <row r="130" spans="1:33" ht="22.5">
+    <row r="130" spans="1:33" ht="23.25">
       <c r="A130" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="4"/>
@@ -8975,16 +9010,16 @@
       <c r="AF130" s="4"/>
       <c r="AG130" s="4"/>
     </row>
-    <row r="131" spans="1:33" ht="22.5">
+    <row r="131" spans="1:33" ht="23.25">
       <c r="A131" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="4"/>
@@ -9030,16 +9065,16 @@
       <c r="AF131" s="4"/>
       <c r="AG131" s="4"/>
     </row>
-    <row r="132" spans="1:33" ht="22.5">
+    <row r="132" spans="1:33" ht="23.25">
       <c r="A132" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="4"/>
@@ -9087,16 +9122,16 @@
       <c r="AF132" s="4"/>
       <c r="AG132" s="4"/>
     </row>
-    <row r="133" spans="1:33" ht="22.5">
+    <row r="133" spans="1:33" ht="23.25">
       <c r="A133" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="4"/>
@@ -9148,16 +9183,16 @@
       <c r="AF133" s="4"/>
       <c r="AG133" s="4"/>
     </row>
-    <row r="134" spans="1:33" ht="22.5">
+    <row r="134" spans="1:33" ht="23.25">
       <c r="A134" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="4"/>
@@ -9211,16 +9246,16 @@
       <c r="AF134" s="4"/>
       <c r="AG134" s="4"/>
     </row>
-    <row r="135" spans="1:33" ht="22.5">
+    <row r="135" spans="1:33" ht="23.25">
       <c r="A135" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="4"/>
@@ -9266,16 +9301,16 @@
       <c r="AF135" s="4"/>
       <c r="AG135" s="4"/>
     </row>
-    <row r="136" spans="1:33" ht="22.5">
+    <row r="136" spans="1:33" ht="23.25">
       <c r="A136" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="4"/>
@@ -9321,16 +9356,16 @@
       <c r="AF136" s="4"/>
       <c r="AG136" s="4"/>
     </row>
-    <row r="137" spans="1:33" ht="22.5">
+    <row r="137" spans="1:33" ht="23.25">
       <c r="A137" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="4"/>
@@ -9376,16 +9411,16 @@
       <c r="AF137" s="4"/>
       <c r="AG137" s="4"/>
     </row>
-    <row r="138" spans="1:33" ht="22.5">
+    <row r="138" spans="1:33" ht="23.25">
       <c r="A138" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="4"/>
@@ -9429,16 +9464,16 @@
       <c r="AF138" s="4"/>
       <c r="AG138" s="4"/>
     </row>
-    <row r="139" spans="1:33" ht="22.5">
+    <row r="139" spans="1:33" ht="23.25">
       <c r="A139" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="4"/>
@@ -9500,16 +9535,16 @@
       <c r="AF139" s="4"/>
       <c r="AG139" s="4"/>
     </row>
-    <row r="140" spans="1:33" ht="22.5">
+    <row r="140" spans="1:33" ht="23.25">
       <c r="A140" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="4"/>
@@ -9571,16 +9606,16 @@
       <c r="AF140" s="4"/>
       <c r="AG140" s="4"/>
     </row>
-    <row r="141" spans="1:33" ht="22.5">
+    <row r="141" spans="1:33" ht="23.25">
       <c r="A141" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="4"/>
@@ -9642,9 +9677,9 @@
       <c r="AF141" s="4"/>
       <c r="AG141" s="4"/>
     </row>
-    <row r="142" spans="1:33" ht="22.5">
+    <row r="142" spans="1:33" ht="23.25">
       <c r="A142" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9693,14 +9728,14 @@
       <c r="AF142" s="4"/>
       <c r="AG142" s="4"/>
     </row>
-    <row r="143" spans="1:33" ht="22.5">
+    <row r="143" spans="1:33" ht="23.25">
       <c r="A143" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="4"/>
@@ -9752,19 +9787,19 @@
       <c r="AF143" s="4"/>
       <c r="AG143" s="4"/>
     </row>
-    <row r="144" spans="1:33" ht="22.5">
+    <row r="144" spans="1:33" ht="23.25">
       <c r="A144" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -9825,16 +9860,16 @@
       <c r="AF144" s="4"/>
       <c r="AG144" s="4"/>
     </row>
-    <row r="145" spans="1:33" ht="22.5">
+    <row r="145" spans="1:33" ht="23.25">
       <c r="A145" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="4"/>
@@ -9866,57 +9901,57 @@
       <c r="AF145" s="4"/>
       <c r="AG145" s="4"/>
     </row>
-    <row r="146" spans="1:33" ht="22.5">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:33" ht="23.25">
+      <c r="A146" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B146" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="C146" s="29"/>
+      <c r="D146" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="E146" s="28"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="29"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="29"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="29"/>
+      <c r="Q146" s="29"/>
+      <c r="R146" s="29"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="29"/>
+      <c r="U146" s="29"/>
+      <c r="V146" s="29"/>
+      <c r="W146" s="29"/>
+      <c r="X146" s="29"/>
+      <c r="Y146" s="29"/>
+      <c r="Z146" s="29"/>
+      <c r="AA146" s="29"/>
+      <c r="AB146" s="29"/>
+      <c r="AC146" s="29"/>
+      <c r="AD146" s="29"/>
+      <c r="AE146" s="29"/>
+      <c r="AF146" s="29"/>
+      <c r="AG146" s="29"/>
+    </row>
+    <row r="147" spans="1:33" ht="23.25">
+      <c r="A147" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
-      <c r="AA146" s="4"/>
-      <c r="AB146" s="4"/>
-      <c r="AC146" s="4"/>
-      <c r="AD146" s="4"/>
-      <c r="AE146" s="4"/>
-      <c r="AF146" s="4"/>
-      <c r="AG146" s="4"/>
-    </row>
-    <row r="147" spans="1:33" ht="22.5">
-      <c r="A147" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="B147" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="4"/>
@@ -9936,27 +9971,27 @@
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
       <c r="T147" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U147" s="4"/>
       <c r="V147" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W147" s="4"/>
       <c r="X147" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y147" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z147" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA147" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB147" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC147" s="4"/>
       <c r="AD147" s="4"/>
@@ -9964,16 +9999,16 @@
       <c r="AF147" s="4"/>
       <c r="AG147" s="4"/>
     </row>
-    <row r="148" spans="1:33" ht="22.5">
+    <row r="148" spans="1:33" ht="23.25">
       <c r="A148" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="4"/>
@@ -10019,16 +10054,18 @@
       <c r="AF148" s="4"/>
       <c r="AG148" s="4"/>
     </row>
-    <row r="149" spans="1:33" ht="22.5">
+    <row r="149" spans="1:33" ht="23.25">
       <c r="A149" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D149" s="27" t="s">
         <v>332</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="27" t="s">
-        <v>333</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="4"/>
@@ -10074,12 +10111,12 @@
       <c r="AF149" s="4"/>
       <c r="AG149" s="4"/>
     </row>
-    <row r="150" spans="1:33" ht="22.5">
+    <row r="150" spans="1:33" ht="23.25">
       <c r="A150" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4" t="s">
@@ -10137,12 +10174,12 @@
       <c r="AF150" s="4"/>
       <c r="AG150" s="4"/>
     </row>
-    <row r="151" spans="1:33" ht="22.5">
+    <row r="151" spans="1:33" ht="23.25">
       <c r="A151" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4" t="s">
@@ -10192,12 +10229,12 @@
       <c r="AF151" s="4"/>
       <c r="AG151" s="4"/>
     </row>
-    <row r="152" spans="1:33" ht="22.5">
+    <row r="152" spans="1:33" ht="23.25">
       <c r="A152" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4" t="s">
@@ -10247,12 +10284,12 @@
       <c r="AF152" s="4"/>
       <c r="AG152" s="4"/>
     </row>
-    <row r="153" spans="1:33" ht="22.5">
+    <row r="153" spans="1:33" ht="23.25">
       <c r="A153" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4" t="s">
@@ -10302,12 +10339,12 @@
       <c r="AF153" s="4"/>
       <c r="AG153" s="4"/>
     </row>
-    <row r="154" spans="1:33" ht="22.5">
+    <row r="154" spans="1:33" ht="23.25">
       <c r="A154" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4" t="s">
@@ -10357,16 +10394,16 @@
       <c r="AF154" s="4"/>
       <c r="AG154" s="4"/>
     </row>
-    <row r="155" spans="1:33" ht="22.5">
+    <row r="155" spans="1:33" ht="23.25">
       <c r="A155" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="4"/>
@@ -10420,12 +10457,12 @@
       <c r="AF155" s="4"/>
       <c r="AG155" s="4"/>
     </row>
-    <row r="156" spans="1:33" ht="22.5">
+    <row r="156" spans="1:33" ht="23.25">
       <c r="A156" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B156" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4" t="s">
@@ -10483,12 +10520,12 @@
       <c r="AF156" s="4"/>
       <c r="AG156" s="4"/>
     </row>
-    <row r="157" spans="1:33" ht="22.5">
+    <row r="157" spans="1:33" ht="23.25">
       <c r="A157" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4" t="s">
@@ -10542,12 +10579,12 @@
       <c r="AF157" s="4"/>
       <c r="AG157" s="4"/>
     </row>
-    <row r="158" spans="1:33" ht="22.5">
+    <row r="158" spans="1:33" ht="23.25">
       <c r="A158" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4" t="s">
@@ -10603,12 +10640,12 @@
       <c r="AF158" s="4"/>
       <c r="AG158" s="4"/>
     </row>
-    <row r="159" spans="1:33" ht="22.5">
+    <row r="159" spans="1:33" ht="23.25">
       <c r="A159" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4" t="s">
@@ -10666,12 +10703,12 @@
       <c r="AF159" s="4"/>
       <c r="AG159" s="4"/>
     </row>
-    <row r="160" spans="1:33" ht="22.5">
+    <row r="160" spans="1:33" ht="23.25">
       <c r="A160" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4" t="s">
@@ -10723,16 +10760,16 @@
       <c r="AF160" s="4"/>
       <c r="AG160" s="4"/>
     </row>
-    <row r="161" spans="1:33" ht="22.5">
+    <row r="161" spans="1:33" ht="23.25">
       <c r="A161" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
@@ -10788,16 +10825,16 @@
       <c r="AF161" s="4"/>
       <c r="AG161" s="4"/>
     </row>
-    <row r="162" spans="1:33" ht="22.5">
+    <row r="162" spans="1:33" ht="23.25">
       <c r="A162" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B162" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="4"/>
@@ -10843,16 +10880,16 @@
       <c r="AF162" s="4"/>
       <c r="AG162" s="4"/>
     </row>
-    <row r="163" spans="1:33" ht="22.5">
+    <row r="163" spans="1:33" ht="23.25">
       <c r="A163" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="4"/>
@@ -10898,16 +10935,16 @@
       <c r="AF163" s="4"/>
       <c r="AG163" s="4"/>
     </row>
-    <row r="164" spans="1:33" ht="22.5">
+    <row r="164" spans="1:33" ht="23.25">
       <c r="A164" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="4"/>
@@ -10953,16 +10990,16 @@
       <c r="AF164" s="4"/>
       <c r="AG164" s="4"/>
     </row>
-    <row r="165" spans="1:33" ht="22.5">
+    <row r="165" spans="1:33" ht="23.25">
       <c r="A165" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="4"/>
@@ -11008,16 +11045,16 @@
       <c r="AF165" s="4"/>
       <c r="AG165" s="4"/>
     </row>
-    <row r="166" spans="1:33" ht="22.5">
+    <row r="166" spans="1:33" ht="23.25">
       <c r="A166" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="4"/>
@@ -11065,9 +11102,9 @@
       <c r="AF166" s="4"/>
       <c r="AG166" s="4"/>
     </row>
-    <row r="167" spans="1:33" ht="22.5">
+    <row r="167" spans="1:33" ht="23.25">
       <c r="A167" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>130</v>
@@ -11120,16 +11157,16 @@
       <c r="AF167" s="4"/>
       <c r="AG167" s="4"/>
     </row>
-    <row r="168" spans="1:33" ht="22.5">
+    <row r="168" spans="1:33" ht="23.25">
       <c r="A168" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="4"/>
@@ -11175,16 +11212,16 @@
       <c r="AF168" s="4"/>
       <c r="AG168" s="4"/>
     </row>
-    <row r="169" spans="1:33" ht="22.5">
+    <row r="169" spans="1:33" ht="23.25">
       <c r="A169" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="4"/>
@@ -11232,12 +11269,12 @@
       <c r="AF169" s="4"/>
       <c r="AG169" s="4"/>
     </row>
-    <row r="170" spans="1:33" ht="22.5">
+    <row r="170" spans="1:33" ht="23.25">
       <c r="A170" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4" t="s">
@@ -11287,12 +11324,12 @@
       <c r="AF170" s="4"/>
       <c r="AG170" s="4"/>
     </row>
-    <row r="171" spans="1:33" ht="22.5">
+    <row r="171" spans="1:33" ht="23.25">
       <c r="A171" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4" t="s">
@@ -11342,12 +11379,12 @@
       <c r="AF171" s="4"/>
       <c r="AG171" s="4"/>
     </row>
-    <row r="172" spans="1:33" ht="22.5">
+    <row r="172" spans="1:33" ht="23.25">
       <c r="A172" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>377</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4" t="s">
@@ -11397,12 +11434,12 @@
       <c r="AF172" s="4"/>
       <c r="AG172" s="4"/>
     </row>
-    <row r="173" spans="1:33" ht="22.5">
+    <row r="173" spans="1:33" ht="23.25">
       <c r="A173" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B173" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4" t="s">
@@ -11456,16 +11493,16 @@
       <c r="AF173" s="4"/>
       <c r="AG173" s="4"/>
     </row>
-    <row r="174" spans="1:33" ht="22.5">
+    <row r="174" spans="1:33" ht="23.25">
       <c r="A174" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="4"/>
@@ -11513,16 +11550,16 @@
       <c r="AF174" s="4"/>
       <c r="AG174" s="4"/>
     </row>
-    <row r="175" spans="1:33" ht="22.5">
+    <row r="175" spans="1:33" ht="23.25">
       <c r="A175" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="4"/>
@@ -11570,11 +11607,17 @@
       <c r="AF175" s="4"/>
       <c r="AG175" s="4"/>
     </row>
-    <row r="176" spans="1:33" ht="22.5">
-      <c r="A176" s="3"/>
-      <c r="B176" s="4"/>
+    <row r="176" spans="1:33" ht="23.25">
+      <c r="A176" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="D176" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="E176" s="3"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
@@ -11582,21 +11625,39 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
+      <c r="L176" s="4">
+        <v>13</v>
+      </c>
       <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
+      <c r="N176" s="4">
+        <v>14</v>
+      </c>
       <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
+      <c r="P176" s="4">
+        <v>15</v>
+      </c>
       <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
+      <c r="R176" s="4">
+        <v>17</v>
+      </c>
       <c r="S176" s="4"/>
-      <c r="T176" s="4"/>
+      <c r="T176" s="4">
+        <v>18</v>
+      </c>
       <c r="U176" s="4"/>
-      <c r="V176" s="4"/>
+      <c r="V176" s="4">
+        <v>19</v>
+      </c>
       <c r="W176" s="4"/>
-      <c r="X176" s="4"/>
-      <c r="Y176" s="4"/>
-      <c r="Z176" s="4"/>
+      <c r="X176" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y176" s="4">
+        <v>23</v>
+      </c>
+      <c r="Z176" s="4">
+        <v>24</v>
+      </c>
       <c r="AA176" s="4"/>
       <c r="AB176" s="4"/>
       <c r="AC176" s="4"/>
@@ -11605,11 +11666,17 @@
       <c r="AF176" s="4"/>
       <c r="AG176" s="4"/>
     </row>
-    <row r="177" spans="1:33" ht="22.5">
-      <c r="A177" s="3"/>
-      <c r="B177" s="4"/>
+    <row r="177" spans="1:33" ht="23.25">
+      <c r="A177" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="D177" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="E177" s="3"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
@@ -11625,26 +11692,46 @@
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
       <c r="S177" s="4"/>
-      <c r="T177" s="4"/>
+      <c r="T177" s="4">
+        <v>20</v>
+      </c>
       <c r="U177" s="4"/>
-      <c r="V177" s="4"/>
+      <c r="V177" s="4">
+        <v>21</v>
+      </c>
       <c r="W177" s="4"/>
-      <c r="X177" s="4"/>
-      <c r="Y177" s="4"/>
-      <c r="Z177" s="4"/>
-      <c r="AA177" s="4"/>
-      <c r="AB177" s="4"/>
+      <c r="X177" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y177" s="4">
+        <v>27</v>
+      </c>
+      <c r="Z177" s="4">
+        <v>27</v>
+      </c>
+      <c r="AA177" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB177" s="4">
+        <v>29</v>
+      </c>
       <c r="AC177" s="4"/>
       <c r="AD177" s="4"/>
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
       <c r="AG177" s="4"/>
     </row>
-    <row r="178" spans="1:33" ht="22.5">
-      <c r="A178" s="3"/>
-      <c r="B178" s="4"/>
+    <row r="178" spans="1:33" ht="23.25">
+      <c r="A178" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="D178" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="E178" s="3"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -11654,20 +11741,46 @@
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
-      <c r="N178" s="4"/>
-      <c r="O178" s="4"/>
-      <c r="P178" s="4"/>
-      <c r="Q178" s="4"/>
-      <c r="R178" s="4"/>
-      <c r="S178" s="4"/>
-      <c r="T178" s="4"/>
-      <c r="U178" s="4"/>
-      <c r="V178" s="4"/>
+      <c r="N178" s="4">
+        <v>20</v>
+      </c>
+      <c r="O178" s="4">
+        <v>21</v>
+      </c>
+      <c r="P178" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q178" s="4">
+        <v>23</v>
+      </c>
+      <c r="R178" s="4">
+        <v>22</v>
+      </c>
+      <c r="S178" s="4">
+        <v>26</v>
+      </c>
+      <c r="T178" s="4">
+        <v>23</v>
+      </c>
+      <c r="U178" s="4">
+        <v>30</v>
+      </c>
+      <c r="V178" s="4">
+        <v>24</v>
+      </c>
       <c r="W178" s="4"/>
-      <c r="X178" s="4"/>
-      <c r="Y178" s="4"/>
-      <c r="Z178" s="4"/>
-      <c r="AA178" s="4"/>
+      <c r="X178" s="4">
+        <v>26</v>
+      </c>
+      <c r="Y178" s="4">
+        <v>28</v>
+      </c>
+      <c r="Z178" s="4">
+        <v>30</v>
+      </c>
+      <c r="AA178" s="4">
+        <v>32</v>
+      </c>
       <c r="AB178" s="4"/>
       <c r="AC178" s="4"/>
       <c r="AD178" s="4"/>
@@ -11675,29 +11788,49 @@
       <c r="AF178" s="4"/>
       <c r="AG178" s="4"/>
     </row>
-    <row r="179" spans="1:33" ht="22.5">
-      <c r="A179" s="3"/>
-      <c r="B179" s="4"/>
+    <row r="179" spans="1:33" ht="23.25">
+      <c r="A179" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="D179" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="E179" s="3"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
+      <c r="J179" s="4">
+        <v>5.7</v>
+      </c>
       <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
+      <c r="L179" s="4">
+        <v>5.6</v>
+      </c>
       <c r="M179" s="4"/>
-      <c r="N179" s="4"/>
+      <c r="N179" s="4">
+        <v>5.9</v>
+      </c>
       <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
+      <c r="P179" s="4">
+        <v>6.4</v>
+      </c>
       <c r="Q179" s="4"/>
-      <c r="R179" s="4"/>
+      <c r="R179" s="4">
+        <v>6.8</v>
+      </c>
       <c r="S179" s="4"/>
-      <c r="T179" s="4"/>
+      <c r="T179" s="4">
+        <v>7.2</v>
+      </c>
       <c r="U179" s="4"/>
-      <c r="V179" s="4"/>
+      <c r="V179" s="4">
+        <v>7.6</v>
+      </c>
       <c r="W179" s="4"/>
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
@@ -11710,7 +11843,7 @@
       <c r="AF179" s="4"/>
       <c r="AG179" s="4"/>
     </row>
-    <row r="180" spans="1:33" ht="22.5">
+    <row r="180" spans="1:33" ht="23.25">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -11745,7 +11878,7 @@
       <c r="AF180" s="4"/>
       <c r="AG180" s="4"/>
     </row>
-    <row r="181" spans="1:33" ht="22.5">
+    <row r="181" spans="1:33" ht="23.25">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -11780,7 +11913,7 @@
       <c r="AF181" s="4"/>
       <c r="AG181" s="4"/>
     </row>
-    <row r="182" spans="1:33" ht="22.5">
+    <row r="182" spans="1:33" ht="23.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -11815,7 +11948,7 @@
       <c r="AF182" s="4"/>
       <c r="AG182" s="4"/>
     </row>
-    <row r="183" spans="1:33" ht="22.5">
+    <row r="183" spans="1:33" ht="23.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -11850,7 +11983,7 @@
       <c r="AF183" s="4"/>
       <c r="AG183" s="4"/>
     </row>
-    <row r="184" spans="1:33" ht="22.5">
+    <row r="184" spans="1:33" ht="23.25">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -11885,7 +12018,7 @@
       <c r="AF184" s="4"/>
       <c r="AG184" s="4"/>
     </row>
-    <row r="185" spans="1:33" ht="22.5">
+    <row r="185" spans="1:33" ht="23.25">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -11920,7 +12053,7 @@
       <c r="AF185" s="4"/>
       <c r="AG185" s="4"/>
     </row>
-    <row r="186" spans="1:33" ht="22.5">
+    <row r="186" spans="1:33" ht="23.25">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -11955,7 +12088,7 @@
       <c r="AF186" s="4"/>
       <c r="AG186" s="4"/>
     </row>
-    <row r="187" spans="1:33" ht="22.5">
+    <row r="187" spans="1:33" ht="23.25">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -11990,7 +12123,7 @@
       <c r="AF187" s="4"/>
       <c r="AG187" s="4"/>
     </row>
-    <row r="188" spans="1:33" ht="22.5">
+    <row r="188" spans="1:33" ht="23.25">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -12025,7 +12158,7 @@
       <c r="AF188" s="4"/>
       <c r="AG188" s="4"/>
     </row>
-    <row r="189" spans="1:33" ht="22.5">
+    <row r="189" spans="1:33" ht="23.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -12060,7 +12193,7 @@
       <c r="AF189" s="4"/>
       <c r="AG189" s="4"/>
     </row>
-    <row r="190" spans="1:33" ht="22.5">
+    <row r="190" spans="1:33" ht="23.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -12095,7 +12228,7 @@
       <c r="AF190" s="4"/>
       <c r="AG190" s="4"/>
     </row>
-    <row r="191" spans="1:33" ht="22.5">
+    <row r="191" spans="1:33" ht="23.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -12130,7 +12263,7 @@
       <c r="AF191" s="4"/>
       <c r="AG191" s="4"/>
     </row>
-    <row r="192" spans="1:33" ht="22.5">
+    <row r="192" spans="1:33" ht="23.25">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -12165,7 +12298,7 @@
       <c r="AF192" s="4"/>
       <c r="AG192" s="4"/>
     </row>
-    <row r="193" spans="1:33" ht="22.5">
+    <row r="193" spans="1:33" ht="23.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -12200,7 +12333,7 @@
       <c r="AF193" s="4"/>
       <c r="AG193" s="4"/>
     </row>
-    <row r="194" spans="1:33" ht="22.5">
+    <row r="194" spans="1:33" ht="23.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -12235,7 +12368,7 @@
       <c r="AF194" s="4"/>
       <c r="AG194" s="4"/>
     </row>
-    <row r="195" spans="1:33" ht="22.5">
+    <row r="195" spans="1:33" ht="23.25">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -12270,7 +12403,7 @@
       <c r="AF195" s="4"/>
       <c r="AG195" s="4"/>
     </row>
-    <row r="196" spans="1:33" ht="22.5">
+    <row r="196" spans="1:33" ht="23.25">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -12305,7 +12438,7 @@
       <c r="AF196" s="4"/>
       <c r="AG196" s="4"/>
     </row>
-    <row r="197" spans="1:33" ht="22.5">
+    <row r="197" spans="1:33" ht="23.25">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -12340,7 +12473,7 @@
       <c r="AF197" s="4"/>
       <c r="AG197" s="4"/>
     </row>
-    <row r="198" spans="1:33" ht="22.5">
+    <row r="198" spans="1:33" ht="23.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -12375,7 +12508,7 @@
       <c r="AF198" s="4"/>
       <c r="AG198" s="4"/>
     </row>
-    <row r="199" spans="1:33" ht="22.5">
+    <row r="199" spans="1:33" ht="23.25">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -12410,7 +12543,7 @@
       <c r="AF199" s="4"/>
       <c r="AG199" s="4"/>
     </row>
-    <row r="200" spans="1:33" ht="22.5">
+    <row r="200" spans="1:33" ht="23.25">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -12445,7 +12578,7 @@
       <c r="AF200" s="4"/>
       <c r="AG200" s="4"/>
     </row>
-    <row r="201" spans="1:33" ht="22.5">
+    <row r="201" spans="1:33" ht="23.25">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -12480,7 +12613,7 @@
       <c r="AF201" s="4"/>
       <c r="AG201" s="4"/>
     </row>
-    <row r="202" spans="1:33" ht="22.5">
+    <row r="202" spans="1:33" ht="23.25">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -12515,7 +12648,7 @@
       <c r="AF202" s="4"/>
       <c r="AG202" s="4"/>
     </row>
-    <row r="203" spans="1:33" ht="22.5">
+    <row r="203" spans="1:33" ht="23.25">
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -12550,7 +12683,7 @@
       <c r="AF203" s="4"/>
       <c r="AG203" s="4"/>
     </row>
-    <row r="204" spans="1:33" ht="22.5">
+    <row r="204" spans="1:33" ht="23.25">
       <c r="A204" s="3"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -12585,7 +12718,7 @@
       <c r="AF204" s="4"/>
       <c r="AG204" s="4"/>
     </row>
-    <row r="205" spans="1:33" ht="22.5">
+    <row r="205" spans="1:33" ht="23.25">
       <c r="A205" s="3"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12620,7 +12753,7 @@
       <c r="AF205" s="4"/>
       <c r="AG205" s="4"/>
     </row>
-    <row r="206" spans="1:33" ht="22.5">
+    <row r="206" spans="1:33" ht="23.25">
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -12655,7 +12788,7 @@
       <c r="AF206" s="4"/>
       <c r="AG206" s="4"/>
     </row>
-    <row r="207" spans="1:33" ht="22.5">
+    <row r="207" spans="1:33" ht="23.25">
       <c r="A207" s="3"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -12690,7 +12823,7 @@
       <c r="AF207" s="4"/>
       <c r="AG207" s="4"/>
     </row>
-    <row r="208" spans="1:33" ht="22.5">
+    <row r="208" spans="1:33" ht="23.25">
       <c r="A208" s="3"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12725,7 +12858,7 @@
       <c r="AF208" s="4"/>
       <c r="AG208" s="4"/>
     </row>
-    <row r="209" spans="1:33" ht="22.5">
+    <row r="209" spans="1:33" ht="23.25">
       <c r="A209" s="3"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -12760,7 +12893,7 @@
       <c r="AF209" s="4"/>
       <c r="AG209" s="4"/>
     </row>
-    <row r="210" spans="1:33" ht="22.5">
+    <row r="210" spans="1:33" ht="23.25">
       <c r="A210" s="3"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -12795,7 +12928,7 @@
       <c r="AF210" s="4"/>
       <c r="AG210" s="4"/>
     </row>
-    <row r="211" spans="1:33" ht="22.5">
+    <row r="211" spans="1:33" ht="23.25">
       <c r="A211" s="3"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -12830,7 +12963,7 @@
       <c r="AF211" s="4"/>
       <c r="AG211" s="4"/>
     </row>
-    <row r="212" spans="1:33" ht="22.5">
+    <row r="212" spans="1:33" ht="23.25">
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -12865,7 +12998,7 @@
       <c r="AF212" s="4"/>
       <c r="AG212" s="4"/>
     </row>
-    <row r="213" spans="1:33" ht="22.5">
+    <row r="213" spans="1:33" ht="23.25">
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -12900,7 +13033,7 @@
       <c r="AF213" s="4"/>
       <c r="AG213" s="4"/>
     </row>
-    <row r="214" spans="1:33" ht="22.5">
+    <row r="214" spans="1:33" ht="23.25">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -12935,7 +13068,7 @@
       <c r="AF214" s="4"/>
       <c r="AG214" s="4"/>
     </row>
-    <row r="215" spans="1:33" ht="22.5">
+    <row r="215" spans="1:33" ht="23.25">
       <c r="A215" s="3"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -12970,7 +13103,7 @@
       <c r="AF215" s="4"/>
       <c r="AG215" s="4"/>
     </row>
-    <row r="216" spans="1:33" ht="22.5">
+    <row r="216" spans="1:33" ht="23.25">
       <c r="A216" s="3"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -13004,7 +13137,7 @@
       <c r="AE216" s="4"/>
       <c r="AF216" s="4"/>
     </row>
-    <row r="217" spans="1:33" ht="22.5">
+    <row r="217" spans="1:33" ht="23.25">
       <c r="A217" s="6"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -13041,7 +13174,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" xr:uid="{051CB03C-7B33-4631-B0E8-C99247098A23}"/>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{C84BC2CC-44E2-4ADD-A479-0AABEEBEF0B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
